--- a/optimizer_testing_results2.xlsx
+++ b/optimizer_testing_results2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="testing_optimizers" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,12 @@
     <sheet name="mp0mp0_noh" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="mp0mp0" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="mp0mam" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="mp1mp1" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="mp1mam" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="mp1" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="mp1mp1" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="mp1mam" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="mp2" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="mp2mp2" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="mp2mam" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="213">
   <si>
     <t xml:space="preserve">mp0mp0</t>
   </si>
@@ -1872,6 +1876,9 @@
   </si>
   <si>
     <t xml:space="preserve">'bounds': array([[-0.00000000e+00, 2.47647233e+00], [-6.08343806e-01, -3.65006284e-03], [ 4.09838893e-03, 2.04919446e-01], [ 0.00000000e+00, 8.67589026e+00], [-2.59360462e-02, -1.55616277e-04], [ 2.69413648e-01, 1.34706824e+01], [-0.00000000e+00, 2.63859752e+00], [-4.74390021e-01, -2.84634013e-03], [ 5.44809361e-02, 2.72404681e+00], [-0.00000000e+00, 2.64382736e+00], [-5.50103030e-01, -3.30061818e-03], [ 1.50392244e-02, 7.51961219e-01], [ 0.00000000e+00, 4.30758272e-02], [-2.26878833e+00, -1.36127300e-02], [-1.27209334e+00, -2.54418668e-02]])} with extra penalty term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stable</t>
   </si>
   <si>
     <t xml:space="preserve">{'all': {'NonbondedForce': [array([[1, 'OG303', -0.7479516044205987, 0.30621472749737266, 0.5853289337620703], [2, 'PG0', 2.380404558636908, 0.4137519635077237, 0.48703876927768136], [3, 'OG311', -0.8802676321259435, 0.29106032093670886, 4.98611020250904], [5, 'OG2P1', -1.0626120358817592, 0.2916355466905367, 1.0131730947421718], [9, 'HGP1', 0.48758814372434706, 0.031034872979988363, 0.10120804350600539]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[1, 'OG303', -0.7479516044205987, 0.30621472749737266, 0.5853289337620703], [2, 'PG0', 2.380404558636908, 0.4137519635077237, 0.48703876927768136], [3, 'OG311', -0.8802676321259435, 0.29106032093670886, 4.98611020250904], [5, 'OG2P1', -1.0626120358817592, 0.2916355466905367, 1.0131730947421718], [9, 'HGP1', 0.48758814372434706, 0.031034872979988363, 0.10120804350600539]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.7479516044205987, 0.30621472749737266, 0.5853289337620703], [2, 'PG0', 2.380404558636908, 0.4137519635077237, 0.48703876927768136], [3, 'OG311', -0.8802676321259435, 0.29106032093670886, 4.98611020250904], [5, 'OG2P1', -1.0626120358817592, 0.2916355466905367, 1.0131730947421718], [9, 'HGP1', 0.48758814372434706, 0.031034872979988363, 0.10120804350600539]], dtype=object)]}}</t>
@@ -2110,6 +2117,183 @@
   <si>
     <t xml:space="preserve">qm geom mm forces; with hydrogens, var const</t>
   </si>
+  <si>
+    <t xml:space="preserve">scipy local Nelder-Mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'CustomNonbondedForce': [array([[0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.38308644880034587, 2.44764, 'PG1', 2], [0.31448724750353974, 0.8037464, 'OG311', 3], [0.30290556416771536, 0.50208, 'OG2P1', 4], [0.04000135244450124, 0.192464, 'HGP1', 6]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[1, 'OG303', -0.621], [2, 'PG1', 1.5], [3, 'OG311', -0.671], [4, 'OG2P1', -0.823], [9, 'HGP1', 0.338]], dtype=object)]}, 'nosol': {'CustomNonbondedForce': [array([[0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.38308644880034587, 2.44764, 'PG1', 2], [0.31448724750353974, 0.8037464, 'OG311', 3], [0.30290556416771536, 0.50208, 'OG2P1', 4], [0.04000135244450124, 0.192464, 'HGP1', 6]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[1, 'OG303', -0.62], [2, 'PG1', 1.5], [3, 'OG311', -0.67], [4, 'OG2P1', -0.82], [9, 'HGP1', 0.33]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'CustomNonbondedForce': [array([[0.3613656120638002, 0.5658485282185834, 'OG303', 1], [0.47723808599247286, 2.857222848641986, 'PG1', 2], [0.5108412171495941, 0.0020521546214294505, 'OG311', 3], [0.2967098191935033, 1.6122998060823912, 'OG2P1', 4], [0.032292774719257206, 0.11944903827267522, 'HGP1', 6]], dtype=object), array([[0.64516600368149, 0.4586287185887815, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[1, 'OG303', -1.0144397784494374], [2, 'PG1', 3.4587188009154253], [3, 'OG311', -0.6835259922458098], [4, 'OG2P1', -0.9442548353311654], [9, 'HGP1', 7.513862822713249e-06]], dtype=object)]}, 'nosol': {'CustomNonbondedForce': [array([[0.3613656120638002, 0.5658485282185834, 'OG303', 1], [0.47723808599247286, 2.857222848641986, 'PG1', 2], [0.5108412171495941, 0.0020521546214294505, 'OG311', 3], [0.2967098191935033, 1.6122998060823912, 'OG2P1', 4], [0.032292774719257206, 0.11944903827267522, 'HGP1', 6]], dtype=object), array([[0.64516600368149, 0.4586287185887815, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[1, 'OG303', -1.0144397784494374], [2, 'PG1', 3.4587188009154253], [3, 'OG311', -0.6835259922458098], [4, 'OG2P1', -0.82], [9, 'HGP1', 7.513862822713249e-06]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[-3.00460060e-02, 4.73768452e-02, 1.73512170e-02, 8.01653940e+00, -2.84334282e-02, 1.23257067e-03, -2.11243794e-02, 3.15968749e-01, -1.36872937e-02, -2.62000225e-02, -3.46010103e-02, -2.58986017e-02, 1.32942624e+00, 5.30762004e+00, 9.41605511e-01, 1.49330356e+00, -1.81145664e-07], [-3.00460218e-02, 4.73765452e-02, 1.73512191e-02, 8.01653506e+00, -2.84334259e-02, 1.23256994e-03, -2.11243864e-02, 3.15967711e-01, -1.36872873e-02, -2.61998985e-02, -3.46008264e-02, -2.58985971e-02, 1.32942723e+00, 5.30761974e+00, 9.41606260e-01, 1.49330315e+00, -1.81237298e-07], [-3.00460204e-02, 4.73765552e-02, 1.73512196e-02, 8.01653425e+00, -2.84334185e-02, 1.23257005e-03, -2.11243859e-02, 3.15968045e-01, -1.36872868e-02, -2.61999088e-02, -3.46008586e-02, -2.58985906e-02, 1.32942755e+00, 5.30761893e+00, 9.41606320e-01, 1.49330381e+00, -1.81220270e-07], [-3.00460171e-02, 4.73765948e-02, 1.73512186e-02, 8.01653424e+00, -2.84334282e-02, 1.23256999e-03, -2.11243852e-02, 3.15967828e-01, -1.36872888e-02, -2.61999244e-02, -3.46008451e-02, -2.58985984e-02, 1.32942698e+00, 5.30761994e+00, 9.41606129e-01, 1.49330352e+00, -1.81225024e-07], [-3.00460216e-02, 4.73765825e-02, 1.73512211e-02, 8.01653963e+00, -2.84334230e-02, 1.23257034e-03, -2.11243847e-02, 3.15968536e-01, -1.36872897e-02, -2.61999021e-02, -3.46009369e-02, -2.58985818e-02, 1.32942802e+00, 5.30761853e+00, 9.41607192e-01, 1.49330498e+00, -1.81292356e-07], [-3.00460233e-02, 4.73764813e-02, 1.73512198e-02, 8.01653336e+00, -2.84334263e-02, 1.23256981e-03, -2.11243871e-02, 3.15967538e-01, -1.36872876e-02, -2.61998831e-02, -3.46007951e-02, -2.58985880e-02, 1.32942739e+00, 5.30761978e+00, 9.41606896e-01, 1.49330402e+00, -1.81288218e-07], [-3.00460265e-02, 4.73763793e-02, 1.73512184e-02, 8.01653083e+00, -2.84334294e-02, 1.23256927e-03, -2.11243879e-02, 3.15967105e-01, -1.36872854e-02, -2.61998444e-02, -3.46007128e-02, -2.58985989e-02, 1.32942775e+00, 5.30761983e+00, 9.41606701e-01, 1.49330346e+00, -1.81325686e-07], [-3.00460151e-02, 4.73766453e-02, 1.73512200e-02, 8.01653638e+00, -2.84334324e-02, 1.23257011e-03, -2.11243847e-02, 3.15967810e-01, -1.36872901e-02, -2.61999297e-02, -3.46008612e-02, -2.58986042e-02, 1.32942674e+00, 5.30761951e+00, 9.41605676e-01, 1.49330300e+00, -1.81274470e-07], [-3.00460248e-02, 4.73764933e-02, 1.73512195e-02, 8.01653289e+00, -2.84334255e-02, 1.23256988e-03, -2.11243868e-02, 3.15967421e-01, -1.36872873e-02, -2.61998951e-02, -3.46007888e-02, -2.58985893e-02, 1.32942707e+00, 5.30762130e+00, 9.41606728e-01, 1.49330352e+00, -1.81237946e-07], [-3.00460232e-02, 4.73764784e-02, 1.73512194e-02, 8.01653306e+00, -2.84334291e-02, 1.23256977e-03, -2.11243872e-02, 3.15967632e-01, -1.36872858e-02, -2.61998681e-02, -3.46007858e-02, -2.58986021e-02, 1.32942781e+00, 5.30761884e+00, 9.41606018e-01, 1.49330355e+00, -1.81244682e-07], [-3.00460252e-02, 4.73765085e-02, 1.73512199e-02, 8.01653439e+00, -2.84334218e-02, 1.23256992e-03, -2.11243861e-02, 3.15967706e-01, -1.36872855e-02, -2.61998850e-02, -3.46008136e-02, -2.58985988e-02, 1.32942761e+00, 5.30761963e+00, 9.41605927e-01, 1.49330294e+00, -1.81243171e-07], [-3.00460184e-02, 4.73765490e-02, 1.73512209e-02, 8.01652947e+00, -2.84334211e-02, 1.23257009e-03, -2.11243867e-02, 3.15967837e-01, -1.36872870e-02, -2.61999270e-02, -3.46008246e-02, -2.58985846e-02, 1.32942715e+00, 5.30762058e+00, 9.41606265e-01, 1.49330468e+00, -1.81105988e-07], [-3.00460223e-02, 4.73764397e-02, 1.73512197e-02, 8.01652977e+00, -2.84334237e-02, 1.23256948e-03, -2.11243889e-02, 3.15967028e-01, -1.36872859e-02, -2.61998734e-02, -3.46007228e-02, -2.58985930e-02, 1.32942704e+00, 5.30761963e+00, 9.41606572e-01, 1.49330313e+00, -1.81261584e-07], [-3.00460205e-02, 4.73765423e-02, 1.73512213e-02, 8.01653776e+00, -2.84334255e-02, 1.23256980e-03, -2.11243841e-02, 3.15968148e-01, -1.36872886e-02, -2.61998809e-02, -3.46008739e-02, -2.58985976e-02, 1.32942814e+00, 5.30761735e+00, 9.41606321e-01, 1.49330401e+00, -1.81412637e-07], [-3.00460280e-02, 4.73764402e-02, 1.73512179e-02, 8.01653289e+00, -2.84334198e-02, 1.23256982e-03, -2.11243860e-02, 3.15967289e-01, -1.36872871e-02, -2.61998938e-02, -3.46007743e-02, -2.58985804e-02, 1.32942710e+00, 5.30762156e+00, 9.41607335e-01, 1.49330359e+00, -1.81249361e-07], [-3.00460200e-02, 4.73765275e-02, 1.73512178e-02, 8.01653471e+00, -2.84334199e-02, 1.23256991e-03, -2.11243883e-02, 3.15967490e-01, -1.36872877e-02, -2.61999011e-02, -3.46008102e-02, -2.58985862e-02, 1.32942680e+00, 5.30761914e+00, 9.41607146e-01, 1.49330303e+00, -1.81227206e-07], [-3.00460095e-02, 4.73767321e-02, 1.73512178e-02, 8.01654069e+00, -2.84334306e-02, 1.23257045e-03, -2.11243843e-02, 3.15968183e-01, -1.36872953e-02, -2.61999715e-02, -3.46009531e-02, -2.58985824e-02, 1.32942606e+00, 5.30761992e+00, 9.41607682e-01, 1.49330412e+00, -1.81305523e-07], [-3.00460162e-02, 4.73766620e-02, 1.73512211e-02, 8.01654167e+00, -2.84334283e-02, 1.23257020e-03, -2.11243846e-02, 3.15967582e-01, -1.36872936e-02, -2.61999363e-02, -3.46008908e-02, -2.58985901e-02, 1.32942609e+00, 5.30762032e+00, 9.41607007e-01, 1.49330238e+00, -1.81232957e-07]]), array([0.01420426, 0.01420427, 0.01420427, 0.01420427, 0.01420427, 0.01420427, 0.01420427, 0.01420427, 0.01420427, 0.01420427, 0.01420428, 0.01420428, 0.01420428, 0.01420428, 0.01420428, 0.01420428, 0.01420428, 0.01420428])) fun: 0.014204261237072687 message: 'Optimization terminated successfully.' nfev: 3025 nit: 2192 status: 0 success: True x: array([-3.00460060e-02, 4.73768452e-02, 1.73512170e-02, 8.01653940e+00, -2.84334282e-02, 1.23257067e-03, -2.11243794e-02, 3.15968749e-01, -1.36872937e-02, -2.62000225e-02, -3.46010103e-02, -2.58986017e-02, 1.32942624e+00, 5.30762004e+00, 9.41605511e-01, 1.49330356e+00, -1.81145664e-07])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var const
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'bounds': array([[-8.31457776e-02, -2.49437333e-03],         [ 1.67452917e-04,  1.67452917e+00],         [ 1.09072725e-03,  3.63575750e-02],         [ 5.61141592e-03,  5.61141592e+01],         [-5.56600065e-02, -1.66980020e-03],         [ 1.20124465e-03,  1.20124465e+01],         [-7.11954423e-02, -2.13586327e-03],         [ 3.91946237e-04,  3.91946237e+00],         [-4.23849836e-01, -1.27154951e-02],         [-4.38679047e+00, -4.38679047e-04],         [-5.36308309e-02, -1.07261662e-02],         [-8.75279106e-01, -3.38817719e-03],         [-0.00000000e+00,  2.62100737e+00],         [ 0.00000000e+00,  9.20737696e+00],         [-0.00000000e+00,  2.75514535e+00],         [-0.00000000e+00,  3.16292480e+00],         [-2.41204758e-02, -0.00000000e+00]])}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'CustomNonbondedForce': [array([[0.3328750448536136, 1.0735145788111882, 'OG303', 1], [0.6854500553575378, 0.007133803254661978, 'PG1', 2], [0.5054160223563611, 0.0020004468605319065, 'OG311', 3], [0.29016122922401966, 1.4620631778450859, 'OG2P1', 4], [0.07722997953214875, 0.04887839871860435, 'HGP1', 6]], dtype=object), array([[0.6464619963248556, 1.3292412921248529, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[1, 'OG303', -0.9381777407353192], [2, 'PG1', 2.9098262739635388], [3, 'OG311', -0.3969789184278028], [4, 'OG2P1', -0.9525409157978633], [9, 'HGP1', 0.007794104780198248]], dtype=object)]}, 'nosol': {'CustomNonbondedForce': [array([[0.3328750448536136, 1.0735145788111882, 'OG303', 1], [0.6854500553575378, 0.007133803254661978, 'PG1', 2], [0.5054160223563611, 0.0020004468605319065, 'OG311', 3], [0.29016122922401966, 1.4620631778450859, 'OG2P1', 4], [0.07722997953214875, 0.04887839871860435, 'HGP1', 6]], dtype=object), array([[0.6464619963248556, 1.3292412921248529, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[1, 'OG303', -0.9381777407353192], [2, 'PG1', 2.9098262739635388], [3, 'OG311', -0.3969789184278028], [4, 'OG2P1', -0.82], [9, 'HGP1', 0.007794104780198248]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[-2.76771693e-02, 8.98818283e-02, 2.49213171e-02, 2.00150732e-02, -2.81314627e-02, 1.20151296e-03, -2.06581530e-02, 2.86525543e-01, -3.27339335e-02, -1.07208578e-02, -3.46691403e-02, -7.50619294e-02, 1.22949051e+00, 4.46531285e+00, 5.46866758e-01, 1.50640704e+00, -1.87998759e-04], [-2.76771544e-02, 8.98815738e-02, 2.49213018e-02, 2.00153686e-02, -2.81314591e-02, 1.20151305e-03, -2.06581571e-02, 2.86525080e-01, -3.27339141e-02, -1.07209647e-02, -3.46702940e-02, -7.50617503e-02, 1.22948539e+00, 4.46531123e+00, 5.46867310e-01, 1.50640764e+00, -1.87997515e-04], [-2.76771584e-02, 8.98815428e-02, 2.49213067e-02, 2.00152922e-02, -2.81314624e-02, 1.20151302e-03, -2.06581599e-02, 2.86525086e-01, -3.27338943e-02, -1.07209588e-02, -3.46700149e-02, -7.50617607e-02, 1.22948428e+00, 4.46531198e+00, 5.46867945e-01, 1.50640794e+00, -1.87997612e-04], [-2.76771620e-02, 8.98818332e-02, 2.49213229e-02, 2.00150329e-02, -2.81314656e-02, 1.20151298e-03, -2.06581512e-02, 2.86525651e-01, -3.27339257e-02, -1.07208459e-02, -3.46689065e-02, -7.50619717e-02, 1.22948953e+00, 4.46531363e+00, 5.46868142e-01, 1.50640699e+00, -1.87998853e-04], [-2.76771627e-02, 8.98816878e-02, 2.49213191e-02, 2.00151208e-02, -2.81314778e-02, 1.20151301e-03, -2.06581562e-02, 2.86525204e-01, -3.27338990e-02, -1.07208882e-02, -3.46691948e-02, -7.50618374e-02, 1.22948902e+00, 4.46531349e+00, 5.46865706e-01, 1.50640699e+00, -1.87998120e-04], [-2.76771723e-02, 8.98814263e-02, 2.49213196e-02, 2.00151093e-02, -2.81314763e-02, 1.20151299e-03, -2.06581606e-02, 2.86524729e-01, -3.27338011e-02, -1.07209593e-02, -3.46691342e-02, -7.50616948e-02, 1.22948365e+00, 4.46531370e+00, 5.46866416e-01, 1.50640846e+00, -1.87997242e-04], [-2.76771528e-02, 8.98816856e-02, 2.49212880e-02, 2.00154640e-02, -2.81314718e-02, 1.20151305e-03, -2.06581561e-02, 2.86525484e-01, -3.27339954e-02, -1.07209269e-02, -3.46706508e-02, -7.50618282e-02, 1.22948734e+00, 4.46530861e+00, 5.46866520e-01, 1.50640829e+00, -1.87997907e-04], [-2.76771560e-02, 8.98814895e-02, 2.49212934e-02, 2.00154354e-02, -2.81314691e-02, 1.20151300e-03, -2.06581519e-02, 2.86525077e-01, -3.27338977e-02, -1.07210116e-02, -3.46704339e-02, -7.50616640e-02, 1.22948375e+00, 4.46531219e+00, 5.46867107e-01, 1.50640643e+00, -1.87997160e-04], [-2.76771656e-02, 8.98814305e-02, 2.49213076e-02, 2.00153076e-02, -2.81314682e-02, 1.20151300e-03, -2.06581589e-02, 2.86524589e-01, -3.27338393e-02, -1.07209989e-02, -3.46699707e-02, -7.50616183e-02, 1.22948501e+00, 4.46531271e+00, 5.46864979e-01, 1.50640739e+00, -1.87996890e-04], [-2.76771678e-02, 8.98814891e-02, 2.49213104e-02, 2.00152157e-02, -2.81314822e-02, 1.20151299e-03, -2.06581555e-02, 2.86524877e-01, -3.27338470e-02, -1.07209697e-02, -3.46694949e-02, -7.50616735e-02, 1.22948564e+00, 4.46531405e+00, 5.46865249e-01, 1.50640657e+00, -1.87997304e-04], [-2.76771570e-02, 8.98816425e-02, 2.49212930e-02, 2.00154715e-02, -2.81314660e-02, 1.20151303e-03, -2.06581618e-02, 2.86525124e-01, -3.27339772e-02, -1.07209299e-02, -3.46708297e-02, -7.50617823e-02, 1.22948820e+00, 4.46530798e+00, 5.46864928e-01, 1.50640920e+00, -1.87997603e-04], [-2.76771642e-02, 8.98814935e-02, 2.49213107e-02, 2.00152780e-02, -2.81314699e-02, 1.20151302e-03, -2.06581649e-02, 2.86524795e-01, -3.27338734e-02, -1.07209368e-02, -3.46699547e-02, -7.50617461e-02, 1.22948510e+00, 4.46530999e+00, 5.46865849e-01, 1.50641026e+00, -1.87997267e-04], [-2.76771464e-02, 8.98813857e-02, 2.49212834e-02, 2.00156335e-02, -2.81314651e-02, 1.20151309e-03, -2.06581609e-02, 2.86524650e-01, -3.27339134e-02, -1.07210454e-02, -3.46713050e-02, -7.50615802e-02, 1.22948321e+00, 4.46530909e+00, 5.46865612e-01, 1.50640803e+00, -1.87996450e-04], [-2.76771548e-02, 8.98816733e-02, 2.49213222e-02, 2.00151378e-02, -2.81314644e-02, 1.20151302e-03, -2.06581608e-02, 2.86525222e-01, -3.27339037e-02, -1.07208862e-02, -3.46694270e-02, -7.50618837e-02, 1.22948698e+00, 4.46531266e+00, 5.46867986e-01, 1.50640820e+00, -1.87998179e-04], [-2.76771624e-02, 8.98814679e-02, 2.49213024e-02, 2.00153258e-02, -2.81314710e-02, 1.20151302e-03, -2.06581619e-02, 2.86524722e-01, -3.27338708e-02, -1.07209837e-02, -3.46700944e-02, -7.50616570e-02, 1.22948538e+00, 4.46531168e+00, 5.46865144e-01, 1.50640770e+00, -1.87997108e-04], [-2.76771554e-02, 8.98813520e-02, 2.49212848e-02, 2.00155937e-02, -2.81314684e-02, 1.20151304e-03, -2.06581570e-02, 2.86524658e-01, -3.27338852e-02, -1.07210529e-02, -3.46710823e-02, -7.50615582e-02, 1.22948247e+00, 4.46530963e+00, 5.46865536e-01, 1.50640816e+00, -1.87996354e-04], [-2.76771549e-02, 8.98815267e-02, 2.49212945e-02, 2.00154089e-02, -2.81314757e-02, 1.20151302e-03, -2.06581537e-02, 2.86524967e-01, -3.27339027e-02, -1.07209816e-02, -3.46702727e-02, -7.50616821e-02, 1.22948604e+00, 4.46531101e+00, 5.46865294e-01, 1.50640713e+00, -1.87997139e-04], [-2.76771625e-02, 8.98816732e-02, 2.49213106e-02, 2.00152486e-02, -2.81314789e-02, 1.20151297e-03, -2.06581502e-02, 2.86525392e-01, -3.27339220e-02, -1.07209139e-02, -3.46697155e-02, -7.50618166e-02, 1.22948775e+00, 4.46531313e+00, 5.46866345e-01, 1.50640670e+00, -1.87997990e-04]]), array([0.01864562, 0.01864563, 0.01864563, 0.01864564, 0.01864565, 0.01864565, 0.01864565, 0.01864565, 0.01864565, 0.01864566, 0.01864566, 0.01864566, 0.01864567, 0.01864567, 0.01864568, 0.01864568, 0.01864568, 0.01864568])) fun: 0.0186456150399398 message: 'Optimization terminated successfully.' nfev: 6835 nit: 5176 status: 0 success: True x: array([-2.76771693e-02, 8.98818283e-02, 2.49213171e-02, 2.00150732e-02, -2.81314627e-02, 1.20151296e-03, -2.06581530e-02, 2.86525543e-01, -3.27339335e-02, -1.07208578e-02, -3.46691403e-02, -7.50619294e-02, 1.22949051e+00, 4.46531285e+00, 5.46866758e-01, 1.50640704e+00, -1.87998759e-04])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'bounds': array([[-8.31457776e-02, -2.49437333e-03], [ 1.67452917e-04, 1.67452917e+00], [ 1.09072725e-03, 3.63575750e-02], [ 5.61141592e-03, 5.61141592e+01], [-5.56600065e-02, -1.66980020e-03], [ 1.20124465e-03, 1.20124465e+01], [-7.11954423e-02, -2.13586327e-03], [ 3.91946237e-04, 3.91946237e+00], [-4.23849836e-01, -1.27154951e-02], [-4.38679047e+00, -4.38679047e-04], [-5.36308309e-02, -1.07261662e-02], [-8.75279106e-01, -3.38817719e-03], [-0.00000000e+00, 2.62100737e+00], [ 0.00000000e+00, 9.20737696e+00], [-0.00000000e+00, 2.75514535e+00], [-0.00000000e+00, 3.16292480e+00], [-2.41204758e-02, -0.00000000e+00]])}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'CustomNonbondedForce': [array([[0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.38308644880034587, 2.44764, 'PG1', 2], [0.31448724750353974, 0.8037464, 'OG311', 3], [0.30290556416771536, 0.50208, 'OG2P1', 4], [0.04000135244450124, 0.192464, 'HGP1', 6]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[1, 'OG303', -0.62], [2, 'PG1', 1.5], [3, 'OG311', -0.67], [4, 'OG2P1', -0.82], [9, 'HGP1', 0.33]], dtype=object)]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not converge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.621, 0.29399657698631193, 0.41840000000000005], [10, 'PG1', 1.5, 0.38308644880034587, 2.44764], [11, 'OG311', -0.671, 0.3144872475035398, 0.8037464], [12, 'OG2P1', -0.823, 0.30290556416771536, 0.50208], [17, 'HGP1', 0.338, 0.04000135244450124, 0.192464]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.621, 0.29399657698631193, 0.41840000000000005], [2, 'PG1', 1.5, 0.38308644880034587, 2.44764], [3, 'OG311', -0.671, 0.3144872475035398, 0.8037464], [4, 'OG2P1', -0.823, 0.30290556416771536, 0.50208], [9, 'HGP1', 0.338, 0.04000135244450124, 0.192464]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.5628913485838637, 0.3437931420544635, 0.18670228592150673], [10, 'PG1', 1.5951935558946617, 0.2524893118837401, 5.284337406810879], [11, 'OG311', -0.5611960295799088, 0.37288854273912725, 0.2272659433306572], [12, 'OG2P1', -0.7123840903636414, 0.3122996592853575, 0.6479057916962696], [17, 'HGP1', 0.2516539451283582, 0.09602473862676064, 0.16448752929287175]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.5628913485838637, 0.3437931420544635, 0.18670228592150673], [2, 'PG1', 1.5951935558946617, 0.2524893118837401, 5.284337406810879], [3, 'OG311', -0.5611960295799088, 0.37288854273912725, 0.2272659433306572], [4, 'OG2P1', -0.7123840903636414, 0.3122996592853575, 0.6479057916962696], [9, 'HGP1', 0.2516539451283582, 0.09602473862676064, 0.16448752929287175]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 6.96936321e-01, -2.92264357e-02, 1.34037732e-02, 2.28889008e+00, 6.88316638e-03, 1.38930163e+01, 7.30215544e-01, -2.20711402e-02, 1.26701405e-01, 1.06339024e+00, -2.30434528e-02, 1.14820776e-01, -7.43834970e-03, -3.89013822e-02, -3.50326591e-02], [ 6.96923919e-01, -2.92269207e-02, 1.33999181e-02, 2.28889307e+00, 6.88418581e-03, 1.38925808e+01, 7.30209711e-01, -2.20711633e-02, 1.26713694e-01, 1.06339536e+00, -2.30434440e-02, 1.14821881e-01, -7.43853380e-03, -3.88992447e-02, -3.50322111e-02], [ 6.96945544e-01, -2.92270432e-02, 1.34002445e-02, 2.28889178e+00, 6.88348606e-03, 1.38930423e+01, 7.30213684e-01, -2.20713696e-02, 1.26685981e-01, 1.06338650e+00, -2.30434196e-02, 1.14824123e-01, -7.43843082e-03, -3.89006509e-02, -3.50315059e-02], [ 6.96937732e-01, -2.92268698e-02, 1.34007023e-02, 2.28888580e+00, 6.88260149e-03, 1.38940114e+01, 7.30212117e-01, -2.20715539e-02, 1.26663337e-01, 1.06338532e+00, -2.30433772e-02, 1.14825400e-01, -7.43812236e-03, -3.89036847e-02, -3.50310928e-02], [ 6.96940557e-01, -2.92268326e-02, 1.34010525e-02, 2.28888292e+00, 6.88352180e-03, 1.38930357e+01, 7.30216788e-01, -2.20712018e-02, 1.26692910e-01, 1.06338679e+00, -2.30434014e-02, 1.14822947e-01, -7.43858143e-03, -3.89006669e-02, -3.50319659e-02], [ 6.96941824e-01, -2.92271917e-02, 1.34001125e-02, 2.28889007e+00, 6.88383516e-03, 1.38926519e+01, 7.30212150e-01, -2.20712947e-02, 1.26701389e-01, 1.06338739e+00, -2.30434440e-02, 1.14822890e-01, -7.43840262e-03, -3.88996211e-02, -3.50317753e-02], [ 6.96946092e-01, -2.92273889e-02, 1.33985453e-02, 2.28890470e+00, 6.88323821e-03, 1.38935795e+01, 7.30207799e-01, -2.20714923e-02, 1.26664944e-01, 1.06339098e+00, -2.30434171e-02, 1.14826900e-01, -7.43842321e-03, -3.89018328e-02, -3.50309665e-02], [ 6.96940235e-01, -2.92266535e-02, 1.34024834e-02, 2.28889445e+00, 6.88402626e-03, 1.38923112e+01, 7.30214503e-01, -2.20709203e-02, 1.26717280e-01, 1.06339244e+00, -2.30434735e-02, 1.14820943e-01, -7.43862289e-03, -3.88987474e-02, -3.50328070e-02], [ 6.96942225e-01, -2.92269110e-02, 1.34011287e-02, 2.28889377e+00, 6.88320085e-03, 1.38934194e+01, 7.30210761e-01, -2.20711392e-02, 1.26679804e-01, 1.06339001e+00, -2.30434178e-02, 1.14824926e-01, -7.43837804e-03, -3.89016602e-02, -3.50317687e-02], [ 6.96947086e-01, -2.92273768e-02, 1.33986208e-02, 2.28889373e+00, 6.88338975e-03, 1.38934101e+01, 7.30217631e-01, -2.20714509e-02, 1.26666657e-01, 1.06337964e+00, -2.30433988e-02, 1.14826424e-01, -7.43857611e-03, -3.89012807e-02, -3.50310443e-02], [ 6.96942495e-01, -2.92270050e-02, 1.34000793e-02, 2.28888935e+00, 6.88322909e-03, 1.38934616e+01, 7.30208378e-01, -2.20713254e-02, 1.26674589e-01, 1.06338749e+00, -2.30434119e-02, 1.14825255e-01, -7.43841038e-03, -3.89017928e-02, -3.50314329e-02], [ 6.96939723e-01, -2.92269099e-02, 1.34004781e-02, 2.28889152e+00, 6.88321714e-03, 1.38934409e+01, 7.30208035e-01, -2.20712368e-02, 1.26677809e-01, 1.06338818e+00, -2.30434259e-02, 1.14825326e-01, -7.43832643e-03, -3.89017343e-02, -3.50315198e-02], [ 6.96943326e-01, -2.92271627e-02, 1.33990751e-02, 2.28888918e+00, 6.88355275e-03, 1.38932655e+01, 7.30206962e-01, -2.20713461e-02, 1.26679030e-01, 1.06339126e+00, -2.30433890e-02, 1.14825599e-01, -7.43838109e-03, -3.89009905e-02, -3.50311429e-02], [ 6.96938415e-01, -2.92267121e-02, 1.34020443e-02, 2.28888374e+00, 6.88310416e-03, 1.38933718e+01, 7.30202359e-01, -2.20712671e-02, 1.26688431e-01, 1.06338948e+00, -2.30434481e-02, 1.14822352e-01, -7.43843851e-03, -3.89019362e-02, -3.50323900e-02], [ 6.96940185e-01, -2.92270614e-02, 1.33999582e-02, 2.28888982e+00, 6.88348927e-03, 1.38932822e+01, 7.30207007e-01, -2.20712326e-02, 1.26680900e-01, 1.06338672e+00, -2.30433981e-02, 1.14825218e-01, -7.43829520e-03, -3.89010852e-02, -3.50314707e-02], [ 6.96939605e-01, -2.92267353e-02, 1.34022354e-02, 2.28889908e+00, 6.88391950e-03, 1.38923752e+01, 7.30215722e-01, -2.20711138e-02, 1.26714998e-01, 1.06339212e+00, -2.30434663e-02, 1.14820884e-01, -7.43849668e-03, -3.88990121e-02, -3.50325805e-02]]), array([0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759677, 0.00759677, 0.00759677])) fun: 0.007596763384451841 message: 'Optimization terminated successfully.' nfev: 2330 nit: 1712 status: 0 success: True x: array([ 6.96936321e-01, -2.92264357e-02, 1.34037732e-02, 2.28889008e+00, 6.88316638e-03, 1.38930163e+01, 7.30215544e-01, -2.20711402e-02, 1.26701405e-01, 1.06339024e+00, -2.30434528e-02, 1.14820776e-01, -7.43834970e-03, -3.89013822e-02, -3.50326591e-02])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 0.001, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">not tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.5599129954869155, 0.33766560536389834, 0.24463550238426554], [10, 'PG1', 1.5960792979624205, 0.26825370933543097, 5.282265979653451], [11, 'OG311', -0.5716323692701902, 0.4691919782083792, 0.007188878217136525], [12, 'OG2P1', -0.7118157844219934, 0.3123765806333538, 0.6440177463798187], [17, 'HGP1', 0.25479322119944364, 0.08428142176355477, 0.1858064551933233]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.5599129954869155, 0.33766560536389834, 0.24463550238426554], [2, 'PG1', 1.5960792979624205, 0.26825370933543097, 5.282265979653451], [3, 'OG311', -0.5716323692701902, 0.4691919782083792, 0.007188878217136525], [4, 'OG2P1', -0.7118157844219934, 0.3123765806333538, 0.6440177463798187], [9, 'HGP1', 0.25479322119944364, 0.08428142176355477, 0.1858064551933233]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 6.93255734e-01, -2.87062403e-02, 1.75567571e-02, 2.29016002e+00, 7.31332927e-03, 1.38878220e+01, 7.43786184e-01, -2.77715756e-02, 4.00709748e-03, 1.06254303e+00, -2.30490647e-02, 1.14136534e-01, -7.53117120e-03, -3.41435988e-02, -3.95714938e-02], [ 6.93255605e-01, -2.87062331e-02, 1.75568052e-02, 2.29016012e+00, 7.31332915e-03, 1.38878224e+01, 7.43786285e-01, -2.77715520e-02, 4.00714774e-03, 1.06254300e+00, -2.30490652e-02, 1.14136531e-01, -7.53116901e-03, -3.41436380e-02, -3.95714520e-02], [ 6.93255651e-01, -2.87062336e-02, 1.75568045e-02, 2.29016005e+00, 7.31333248e-03, 1.38878223e+01, 7.43786213e-01, -2.77715491e-02, 4.00714939e-03, 1.06254302e+00, -2.30490647e-02, 1.14136535e-01, -7.53117066e-03, -3.41436334e-02, -3.95714395e-02], [ 6.93255709e-01, -2.87062362e-02, 1.75567798e-02, 2.29016016e+00, 7.31332718e-03, 1.38878234e+01, 7.43786271e-01, -2.77715663e-02, 4.00712020e-03, 1.06254301e+00, -2.30490647e-02, 1.14136523e-01, -7.53117186e-03, -3.41436200e-02, -3.95714754e-02], [ 6.93255685e-01, -2.87062391e-02, 1.75567533e-02, 2.29016016e+00, 7.31333508e-03, 1.38878163e+01, 7.43786297e-01, -2.77715736e-02, 4.00709092e-03, 1.06254303e+00, -2.30490648e-02, 1.14136540e-01, -7.53117089e-03, -3.41435908e-02, -3.95714826e-02], [ 6.93255612e-01, -2.87062317e-02, 1.75568251e-02, 2.29015996e+00, 7.31332814e-03, 1.38878250e+01, 7.43786135e-01, -2.77715412e-02, 4.00717962e-03, 1.06254304e+00, -2.30490656e-02, 1.14136536e-01, -7.53116872e-03, -3.41436540e-02, -3.95714366e-02], [ 6.93255471e-01, -2.87062368e-02, 1.75567803e-02, 2.29016006e+00, 7.31333156e-03, 1.38878253e+01, 7.43786308e-01, -2.77715628e-02, 4.00711600e-03, 1.06254297e+00, -2.30490650e-02, 1.14136529e-01, -7.53117349e-03, -3.41436210e-02, -3.95714661e-02], [ 6.93255702e-01, -2.87062321e-02, 1.75568237e-02, 2.29015996e+00, 7.31332826e-03, 1.38878264e+01, 7.43786200e-01, -2.77715416e-02, 4.00717557e-03, 1.06254295e+00, -2.30490649e-02, 1.14136531e-01, -7.53117156e-03, -3.41436511e-02, -3.95714279e-02], [ 6.93255548e-01, -2.87062367e-02, 1.75567720e-02, 2.29016020e+00, 7.31333177e-03, 1.38878197e+01, 7.43786260e-01, -2.77715675e-02, 4.00710793e-03, 1.06254308e+00, -2.30490652e-02, 1.14136533e-01, -7.53116943e-03, -3.41436122e-02, -3.95714806e-02], [ 6.93255572e-01, -2.87062363e-02, 1.75567777e-02, 2.29016012e+00, 7.31333013e-03, 1.38878211e+01, 7.43786189e-01, -2.77715651e-02, 4.00710810e-03, 1.06254310e+00, -2.30490654e-02, 1.14136534e-01, -7.53116914e-03, -3.41436189e-02, -3.95714800e-02], [ 6.93255581e-01, -2.87062343e-02, 1.75567963e-02, 2.29016011e+00, 7.31333224e-03, 1.38878207e+01, 7.43786271e-01, -2.77715536e-02, 4.00714273e-03, 1.06254301e+00, -2.30490655e-02, 1.14136538e-01, -7.53116997e-03, -3.41436284e-02, -3.95714516e-02], [ 6.93255634e-01, -2.87062367e-02, 1.75567789e-02, 2.29016011e+00, 7.31333009e-03, 1.38878222e+01, 7.43786270e-01, -2.77715646e-02, 4.00711527e-03, 1.06254300e+00, -2.30490649e-02, 1.14136531e-01, -7.53117091e-03, -3.41436170e-02, -3.95714718e-02], [ 6.93255682e-01, -2.87062375e-02, 1.75567720e-02, 2.29016010e+00, 7.31333356e-03, 1.38878194e+01, 7.43786331e-01, -2.77715654e-02, 4.00711215e-03, 1.06254294e+00, -2.30490647e-02, 1.14136537e-01, -7.53117173e-03, -3.41436054e-02, -3.95714648e-02], [ 6.93255653e-01, -2.87062354e-02, 1.75567890e-02, 2.29016007e+00, 7.31333169e-03, 1.38878215e+01, 7.43786264e-01, -2.77715573e-02, 4.00713537e-03, 1.06254300e+00, -2.30490650e-02, 1.14136535e-01, -7.53117143e-03, -3.41436224e-02, -3.95714555e-02], [ 6.93255651e-01, -2.87062359e-02, 1.75567828e-02, 2.29016014e+00, 7.31333066e-03, 1.38878210e+01, 7.43786295e-01, -2.77715623e-02, 4.00712242e-03, 1.06254299e+00, -2.30490649e-02, 1.14136532e-01, -7.53117053e-03, -3.41436185e-02, -3.95714662e-02], [ 6.93255640e-01, -2.87062359e-02, 1.75567853e-02, 2.29016009e+00, 7.31333187e-03, 1.38878214e+01, 7.43786262e-01, -2.77715594e-02, 4.00712850e-03, 1.06254300e+00, -2.30490650e-02, 1.14136534e-01, -7.53117130e-03, -3.41436198e-02, -3.95714599e-02]]), array([0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176])) fun: 0.007591761912433404 message: 'Optimization terminated successfully.' nfev: 2745 nit: 1956 status: 0 success: True x: array([ 6.93255734e-01, -2.87062403e-02, 1.75567571e-02, 2.29016002e+00, 7.31332927e-03, 1.38878220e+01, 7.43786184e-01, -2.77715756e-02, 4.00709748e-03, 1.06254303e+00, -2.30490647e-02, 1.14136534e-01, -7.53117120e-03, -3.41435988e-02, -3.95714938e-02])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])}   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.5822100752328345, 0.32463993041930755, 0.39886662800256806], [10, 'PG1', 1.69166026291533, 0.24578154970663865, 1.277143326335016], [11, 'OG311', -0.693589281540762, 0.5431331805258888, 0.0020002390832146205], [12, 'OG2P1', -0.7429931295443224, 0.3069656965561575, 0.8501271401278906], [17, 'HGP1', 0.26789812896558507, 0.05904131091001402, 0.09655762642645165]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.5822100752328345, 0.32463993041930755, 0.39886662800256806], [2, 'PG1', 1.69166026291533, 0.24578154970663865, 1.277143326335016], [3, 'OG311', -0.693589281540762, 0.5431331805258888, 0.0020002390832146205], [4, 'OG2P1', -0.7429931295443224, 0.3069656965561575, 0.8501271401278906], [9, 'HGP1', 0.26789812896558507, 0.05904131091001402, 0.09655762642645165]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 7.20862703e-01, -2.75988742e-02, 2.86254953e-02, 2.42730609e+00, 6.70068898e-03, 3.35778908e+00, 9.02472133e-01, -3.21481624e-02, 1.11494204e-03, 1.10908201e+00, -2.26498165e-02, 1.50664412e-01, -7.91852427e-03, -2.39184765e-02, -2.05639915e-02], [ 7.20862802e-01, -2.75988755e-02, 2.86254875e-02, 2.42730599e+00, 6.70068299e-03, 3.35778636e+00, 9.02472109e-01, -3.21481610e-02, 1.11494204e-03, 1.10908201e+00, -2.26498161e-02, 1.50664449e-01, -7.91852803e-03, -2.39184767e-02, -2.05640053e-02], [ 7.20862802e-01, -2.75988755e-02, 2.86254865e-02, 2.42730593e+00, 6.70068184e-03, 3.35778735e+00, 9.02472098e-01, -3.21481601e-02, 1.11494203e-03, 1.10908201e+00, -2.26498163e-02, 1.50664442e-01, -7.91852804e-03, -2.39184766e-02, -2.05640124e-02], [ 7.20862773e-01, -2.75988753e-02, 2.86254864e-02, 2.42730596e+00, 6.70068024e-03, 3.35778984e+00, 9.02472044e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498164e-02, 1.50664428e-01, -7.91852616e-03, -2.39184761e-02, -2.05640184e-02], [ 7.20862723e-01, -2.75988747e-02, 2.86254848e-02, 2.42730595e+00, 6.70067691e-03, 3.35779521e+00, 9.02471973e-01, -3.21481584e-02, 1.11494196e-03, 1.10908204e+00, -2.26498168e-02, 1.50664390e-01, -7.91852332e-03, -2.39184746e-02, -2.05640388e-02], [ 7.20862839e-01, -2.75988753e-02, 2.86254925e-02, 2.42730608e+00, 6.70068777e-03, 3.35778344e+00, 9.02472184e-01, -3.21481604e-02, 1.11494209e-03, 1.10908201e+00, -2.26498160e-02, 1.50664460e-01, -7.91852830e-03, -2.39184804e-02, -2.05639803e-02], [ 7.20862787e-01, -2.75988753e-02, 2.86254872e-02, 2.42730599e+00, 6.70068071e-03, 3.35778925e+00, 9.02472034e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498164e-02, 1.50664431e-01, -7.91852627e-03, -2.39184767e-02, -2.05640149e-02], [ 7.20862746e-01, -2.75988750e-02, 2.86254894e-02, 2.42730592e+00, 6.70068248e-03, 3.35779022e+00, 9.02472010e-01, -3.21481599e-02, 1.11494195e-03, 1.10908206e+00, -2.26498164e-02, 1.50664422e-01, -7.91852520e-03, -2.39184762e-02, -2.05640141e-02], [ 7.20862757e-01, -2.75988752e-02, 2.86254901e-02, 2.42730601e+00, 6.70068417e-03, 3.35778843e+00, 9.02472112e-01, -3.21481604e-02, 1.11494203e-03, 1.10908203e+00, -2.26498165e-02, 1.50664428e-01, -7.91852636e-03, -2.39184764e-02, -2.05640049e-02], [ 7.20862767e-01, -2.75988753e-02, 2.86254869e-02, 2.42730596e+00, 6.70068012e-03, 3.35779059e+00, 9.02472020e-01, -3.21481595e-02, 1.11494201e-03, 1.10908204e+00, -2.26498166e-02, 1.50664420e-01, -7.91852601e-03, -2.39184755e-02, -2.05640221e-02], [ 7.20862753e-01, -2.75988756e-02, 2.86254858e-02, 2.42730595e+00, 6.70067928e-03, 3.35779031e+00, 9.02472023e-01, -3.21481598e-02, 1.11494202e-03, 1.10908205e+00, -2.26498166e-02, 1.50664425e-01, -7.91852670e-03, -2.39184739e-02, -2.05640252e-02], [ 7.20862833e-01, -2.75988756e-02, 2.86254818e-02, 2.42730592e+00, 6.70067724e-03, 3.35778823e+00, 9.02472016e-01, -3.21481603e-02, 1.11494202e-03, 1.10908202e+00, -2.26498161e-02, 1.50664451e-01, -7.91852759e-03, -2.39184769e-02, -2.05640236e-02], [ 7.20862808e-01, -2.75988748e-02, 2.86254943e-02, 2.42730604e+00, 6.70068740e-03, 3.35778608e+00, 9.02472027e-01, -3.21481604e-02, 1.11494204e-03, 1.10908204e+00, -2.26498164e-02, 1.50664441e-01, -7.91852674e-03, -2.39184785e-02, -2.05639910e-02], [ 7.20862770e-01, -2.75988754e-02, 2.86254862e-02, 2.42730597e+00, 6.70067853e-03, 3.35779191e+00, 9.02471995e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498169e-02, 1.50664412e-01, -7.91852491e-03, -2.39184764e-02, -2.05640257e-02], [ 7.20862746e-01, -2.75988746e-02, 2.86254863e-02, 2.42730597e+00, 6.70068134e-03, 3.35778900e+00, 9.02472119e-01, -3.21481612e-02, 1.11494206e-03, 1.10908203e+00, -2.26498167e-02, 1.50664431e-01, -7.91852683e-03, -2.39184748e-02, -2.05640137e-02], [ 7.20862702e-01, -2.75988746e-02, 2.86254855e-02, 2.42730594e+00, 6.70067917e-03, 3.35779057e+00, 9.02472006e-01, -3.21481604e-02, 1.11494202e-03, 1.10908208e+00, -2.26498168e-02, 1.50664427e-01, -7.91852744e-03, -2.39184700e-02, -2.05640297e-02]]), array([0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258])) fun: 0.0063257974266551 message: 'Optimization terminated successfully.' nfev: 3334 nit: 2380 status: 0 success: True x: array([ 7.20862703e-01, -2.75988742e-02, 2.86254953e-02, 2.42730609e+00, 6.70068898e-03, 3.35778908e+00, 9.02472133e-01, -3.21481624e-02, 1.11494204e-03, 1.10908201e+00, -2.26498165e-02, 1.50664412e-01, -7.91852427e-03, -2.39184765e-02, -2.05639915e-02])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])}   adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'all': {'CustomNonbondedForce': [array([[0.38308644880034587, 2.44764, 'PG2', 0], [0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.30290556416771536, 0.50208, 'OG2P1', 2]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[0, 'PG2', 1.099], [1, 'OG303', -0.399], [2, 'OG2P1', -0.9]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.1, 0.38308644880034587, 2.44764], [1, 'OG303', -0.4, 0.29399657698631193, 0.41840000000000005], [2, 'OG2P1', -0.9, 0.30290556416771536, 0.50208]], dtype=object)]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466]]), array([1.20763173e-02, 1.20773827e-02, 1.20773829e-02, 1.20773830e-02, 1.39924731e+04, 1.39924731e+04, 1.39924731e+04, 1.39924731e+04, 1.39924731e+04, 1.39924735e+04, 1.39924735e+04, 1.39924735e+04])) fun: 0.012076317313923451 message: 'Maximum number of iterations has been exceeded.' nfev: 24841 nit: 10000 status: 2 success: False x: array([-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-6.40818460e-02, -1.92245538e-03], [ 5.03211214e-03, 5.03211214e+01], [-1.75420278e-01, -5.26260835e-03], [-3.98987667e-01, -3.98987667e-05], [-1.64286435e-01, -4.92859305e-03], [ 1.69256322e-04, 1.69256322e+00], [-1.47921904e-01, -2.95843809e-02], [-2.33378441e+00, -9.03400418e-03], [ 0.00000000e+00, 4.98370786e+00], [-0.00000000e+00, 2.08296007e+00], [-0.00000000e+00, 3.33519118e+00]])}, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">scipy local Nelder-Mead
+</t>
+  </si>
 </sst>
 </file>
 
@@ -2120,7 +2304,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2143,21 +2327,55 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -2186,7 +2404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2211,8 +2429,36 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2224,6 +2470,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2238,7 +2544,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.7"/>
@@ -2886,6 +3192,316 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>24841</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="H3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3299,11 +3915,11 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.76"/>
@@ -3612,32 +4228,36 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="7" t="n">
         <v>1E-005</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="6" t="n">
         <v>10606</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="9" t="s">
         <v>164</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,10 +4275,10 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>124</v>
@@ -3667,7 +4287,7 @@
         <v>140</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +4327,7 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3757,13 +4377,13 @@
         <v>24817</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3793,7 +4413,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3810,19 +4430,19 @@
         <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="1250" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,14 +4456,14 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -3854,23 +4474,24 @@
       <c r="B7" s="4" t="n">
         <v>1E-005</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="10" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>159</v>
@@ -3895,17 +4516,404 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K83"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="579.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>3025</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>6835</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.95"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
@@ -3924,6 +4932,99 @@
       </c>
       <c r="G1" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>28463</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>143983</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3937,20 +5038,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="68.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.11"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
@@ -3971,6 +5079,111 @@
       </c>
       <c r="G1" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>2330</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2745</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3334</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/optimizer_testing_results2.xlsx
+++ b/optimizer_testing_results2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="testing_optimizers" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="228">
   <si>
     <t xml:space="preserve">mp0mp0</t>
   </si>
@@ -1888,6 +1888,12 @@
   </si>
   <si>
     <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47647233e+00], [-6.08343806e-01, -3.65006284e-03], [ 4.09838893e-03, 2.04919446e-01], [ 0.00000000e+00, 8.67589026e+00], [-2.59360462e-02, -1.55616277e-04], [ 2.69413648e-01, 1.34706824e+01], [-0.00000000e+00, 2.63859752e+00], [-4.74390021e-01, -2.84634013e-03], [ 5.44809361e-02, 2.72404681e+00], [-0.00000000e+00, 2.64382736e+00], [-5.50103030e-01, -3.30061818e-03], [ 1.50392244e-02, 7.51961219e-01], [ 0.00000000e+00, 4.30758272e-02], [-2.26878833e+00, -1.36127300e-02], [-1.27209334e+00, -2.54418668e-02]])} with extra penalty term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moar commies</t>
   </si>
   <si>
     <t xml:space="preserve">{'all': {'NonbondedForce': [array([[1, 'OG303', -0.56, 0.29399657698631193, 0.41840000000000005],
@@ -1983,6 +1989,9 @@
              x: array([ 7.93343696e-01, -5.22153836e-02, -6.78493377e-03,  1.04917728e+00,
        -1.22143881e-02,  7.46092954e+00,  1.09022605e+00, -2.13620452e-02,
         4.77145943e-01,  1.24237937e+00,  3.96548371e-02,  4.98338803e-02])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame 22 has been dumped in all optimiziations here due to fckd geom which already originated from the md and clustering</t>
   </si>
   <si>
     <t xml:space="preserve">ini_simp = ([ 1.00456840e+00, -5.89743186e-02, -1.28879962e-04,  3.27884519e+00,
@@ -2134,26 +2143,8 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'bounds': array([[-8.31457776e-02, -2.49437333e-03],         [ 1.67452917e-04,  1.67452917e+00],         [ 1.09072725e-03,  3.63575750e-02],         [ 5.61141592e-03,  5.61141592e+01],         [-5.56600065e-02, -1.66980020e-03],         [ 1.20124465e-03,  1.20124465e+01],         [-7.11954423e-02, -2.13586327e-03],         [ 3.91946237e-04,  3.91946237e+00],         [-4.23849836e-01, -1.27154951e-02],         [-4.38679047e+00, -4.38679047e-04],         [-5.36308309e-02, -1.07261662e-02],         [-8.75279106e-01, -3.38817719e-03],         [-0.00000000e+00,  2.62100737e+00],         [ 0.00000000e+00,  9.20737696e+00],         [-0.00000000e+00,  2.75514535e+00],         [-0.00000000e+00,  3.16292480e+00],         [-2.41204758e-02, -0.00000000e+00]])}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)
+    <t xml:space="preserve">'bounds': array([[-8.31457776e-02, -2.49437333e-03],         [ 1.67452917e-04,  1.67452917e+00],         [ 1.09072725e-03,  3.63575750e-02],         [ 5.61141592e-03,  5.61141592e+01],         [-5.56600065e-02, -1.66980020e-03],         [ 1.20124465e-03,  1.20124465e+01],         [-7.11954423e-02, -2.13586327e-03],         [ 3.91946237e-04,  3.91946237e+00],         [-4.23849836e-01, -1.27154951e-02],         [-4.38679047e+00, -4.38679047e-04],         [-5.36308309e-02, -1.07261662e-02],         [-8.75279106e-01, -3.38817719e-03],         [-0.00000000e+00,  2.62100737e+00],         [ 0.00000000e+00,  9.20737696e+00],         [-0.00000000e+00,  2.75514535e+00],         [-0.00000000e+00,  3.16292480e+00],         [-2.41204758e-02, -0.00000000e+00]])}, adaptive: True, Opti.enforce_constraints = True (extra penalty term)
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -2165,25 +2156,7 @@
     <t xml:space="preserve">final_simplex: (array([[-2.76771693e-02, 8.98818283e-02, 2.49213171e-02, 2.00150732e-02, -2.81314627e-02, 1.20151296e-03, -2.06581530e-02, 2.86525543e-01, -3.27339335e-02, -1.07208578e-02, -3.46691403e-02, -7.50619294e-02, 1.22949051e+00, 4.46531285e+00, 5.46866758e-01, 1.50640704e+00, -1.87998759e-04], [-2.76771544e-02, 8.98815738e-02, 2.49213018e-02, 2.00153686e-02, -2.81314591e-02, 1.20151305e-03, -2.06581571e-02, 2.86525080e-01, -3.27339141e-02, -1.07209647e-02, -3.46702940e-02, -7.50617503e-02, 1.22948539e+00, 4.46531123e+00, 5.46867310e-01, 1.50640764e+00, -1.87997515e-04], [-2.76771584e-02, 8.98815428e-02, 2.49213067e-02, 2.00152922e-02, -2.81314624e-02, 1.20151302e-03, -2.06581599e-02, 2.86525086e-01, -3.27338943e-02, -1.07209588e-02, -3.46700149e-02, -7.50617607e-02, 1.22948428e+00, 4.46531198e+00, 5.46867945e-01, 1.50640794e+00, -1.87997612e-04], [-2.76771620e-02, 8.98818332e-02, 2.49213229e-02, 2.00150329e-02, -2.81314656e-02, 1.20151298e-03, -2.06581512e-02, 2.86525651e-01, -3.27339257e-02, -1.07208459e-02, -3.46689065e-02, -7.50619717e-02, 1.22948953e+00, 4.46531363e+00, 5.46868142e-01, 1.50640699e+00, -1.87998853e-04], [-2.76771627e-02, 8.98816878e-02, 2.49213191e-02, 2.00151208e-02, -2.81314778e-02, 1.20151301e-03, -2.06581562e-02, 2.86525204e-01, -3.27338990e-02, -1.07208882e-02, -3.46691948e-02, -7.50618374e-02, 1.22948902e+00, 4.46531349e+00, 5.46865706e-01, 1.50640699e+00, -1.87998120e-04], [-2.76771723e-02, 8.98814263e-02, 2.49213196e-02, 2.00151093e-02, -2.81314763e-02, 1.20151299e-03, -2.06581606e-02, 2.86524729e-01, -3.27338011e-02, -1.07209593e-02, -3.46691342e-02, -7.50616948e-02, 1.22948365e+00, 4.46531370e+00, 5.46866416e-01, 1.50640846e+00, -1.87997242e-04], [-2.76771528e-02, 8.98816856e-02, 2.49212880e-02, 2.00154640e-02, -2.81314718e-02, 1.20151305e-03, -2.06581561e-02, 2.86525484e-01, -3.27339954e-02, -1.07209269e-02, -3.46706508e-02, -7.50618282e-02, 1.22948734e+00, 4.46530861e+00, 5.46866520e-01, 1.50640829e+00, -1.87997907e-04], [-2.76771560e-02, 8.98814895e-02, 2.49212934e-02, 2.00154354e-02, -2.81314691e-02, 1.20151300e-03, -2.06581519e-02, 2.86525077e-01, -3.27338977e-02, -1.07210116e-02, -3.46704339e-02, -7.50616640e-02, 1.22948375e+00, 4.46531219e+00, 5.46867107e-01, 1.50640643e+00, -1.87997160e-04], [-2.76771656e-02, 8.98814305e-02, 2.49213076e-02, 2.00153076e-02, -2.81314682e-02, 1.20151300e-03, -2.06581589e-02, 2.86524589e-01, -3.27338393e-02, -1.07209989e-02, -3.46699707e-02, -7.50616183e-02, 1.22948501e+00, 4.46531271e+00, 5.46864979e-01, 1.50640739e+00, -1.87996890e-04], [-2.76771678e-02, 8.98814891e-02, 2.49213104e-02, 2.00152157e-02, -2.81314822e-02, 1.20151299e-03, -2.06581555e-02, 2.86524877e-01, -3.27338470e-02, -1.07209697e-02, -3.46694949e-02, -7.50616735e-02, 1.22948564e+00, 4.46531405e+00, 5.46865249e-01, 1.50640657e+00, -1.87997304e-04], [-2.76771570e-02, 8.98816425e-02, 2.49212930e-02, 2.00154715e-02, -2.81314660e-02, 1.20151303e-03, -2.06581618e-02, 2.86525124e-01, -3.27339772e-02, -1.07209299e-02, -3.46708297e-02, -7.50617823e-02, 1.22948820e+00, 4.46530798e+00, 5.46864928e-01, 1.50640920e+00, -1.87997603e-04], [-2.76771642e-02, 8.98814935e-02, 2.49213107e-02, 2.00152780e-02, -2.81314699e-02, 1.20151302e-03, -2.06581649e-02, 2.86524795e-01, -3.27338734e-02, -1.07209368e-02, -3.46699547e-02, -7.50617461e-02, 1.22948510e+00, 4.46530999e+00, 5.46865849e-01, 1.50641026e+00, -1.87997267e-04], [-2.76771464e-02, 8.98813857e-02, 2.49212834e-02, 2.00156335e-02, -2.81314651e-02, 1.20151309e-03, -2.06581609e-02, 2.86524650e-01, -3.27339134e-02, -1.07210454e-02, -3.46713050e-02, -7.50615802e-02, 1.22948321e+00, 4.46530909e+00, 5.46865612e-01, 1.50640803e+00, -1.87996450e-04], [-2.76771548e-02, 8.98816733e-02, 2.49213222e-02, 2.00151378e-02, -2.81314644e-02, 1.20151302e-03, -2.06581608e-02, 2.86525222e-01, -3.27339037e-02, -1.07208862e-02, -3.46694270e-02, -7.50618837e-02, 1.22948698e+00, 4.46531266e+00, 5.46867986e-01, 1.50640820e+00, -1.87998179e-04], [-2.76771624e-02, 8.98814679e-02, 2.49213024e-02, 2.00153258e-02, -2.81314710e-02, 1.20151302e-03, -2.06581619e-02, 2.86524722e-01, -3.27338708e-02, -1.07209837e-02, -3.46700944e-02, -7.50616570e-02, 1.22948538e+00, 4.46531168e+00, 5.46865144e-01, 1.50640770e+00, -1.87997108e-04], [-2.76771554e-02, 8.98813520e-02, 2.49212848e-02, 2.00155937e-02, -2.81314684e-02, 1.20151304e-03, -2.06581570e-02, 2.86524658e-01, -3.27338852e-02, -1.07210529e-02, -3.46710823e-02, -7.50615582e-02, 1.22948247e+00, 4.46530963e+00, 5.46865536e-01, 1.50640816e+00, -1.87996354e-04], [-2.76771549e-02, 8.98815267e-02, 2.49212945e-02, 2.00154089e-02, -2.81314757e-02, 1.20151302e-03, -2.06581537e-02, 2.86524967e-01, -3.27339027e-02, -1.07209816e-02, -3.46702727e-02, -7.50616821e-02, 1.22948604e+00, 4.46531101e+00, 5.46865294e-01, 1.50640713e+00, -1.87997139e-04], [-2.76771625e-02, 8.98816732e-02, 2.49213106e-02, 2.00152486e-02, -2.81314789e-02, 1.20151297e-03, -2.06581502e-02, 2.86525392e-01, -3.27339220e-02, -1.07209139e-02, -3.46697155e-02, -7.50618166e-02, 1.22948775e+00, 4.46531313e+00, 5.46866345e-01, 1.50640670e+00, -1.87997990e-04]]), array([0.01864562, 0.01864563, 0.01864563, 0.01864564, 0.01864565, 0.01864565, 0.01864565, 0.01864565, 0.01864565, 0.01864566, 0.01864566, 0.01864566, 0.01864567, 0.01864567, 0.01864568, 0.01864568, 0.01864568, 0.01864568])) fun: 0.0186456150399398 message: 'Optimization terminated successfully.' nfev: 6835 nit: 5176 status: 0 success: True x: array([-2.76771693e-02, 8.98818283e-02, 2.49213171e-02, 2.00150732e-02, -2.81314627e-02, 1.20151296e-03, -2.06581530e-02, 2.86525543e-01, -3.27339335e-02, -1.07208578e-02, -3.46691403e-02, -7.50619294e-02, 1.22949051e+00, 4.46531285e+00, 5.46866758e-01, 1.50640704e+00, -1.87998759e-04])</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'bounds': array([[-8.31457776e-02, -2.49437333e-03], [ 1.67452917e-04, 1.67452917e+00], [ 1.09072725e-03, 3.63575750e-02], [ 5.61141592e-03, 5.61141592e+01], [-5.56600065e-02, -1.66980020e-03], [ 1.20124465e-03, 1.20124465e+01], [-7.11954423e-02, -2.13586327e-03], [ 3.91946237e-04, 3.91946237e+00], [-4.23849836e-01, -1.27154951e-02], [-4.38679047e+00, -4.38679047e-04], [-5.36308309e-02, -1.07261662e-02], [-8.75279106e-01, -3.38817719e-03], [-0.00000000e+00, 2.62100737e+00], [ 0.00000000e+00, 9.20737696e+00], [-0.00000000e+00, 2.75514535e+00], [-0.00000000e+00, 3.16292480e+00], [-2.41204758e-02, -0.00000000e+00]])}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
-    </r>
+    <t xml:space="preserve">'bounds': array([[-8.31457776e-02, -2.49437333e-03], [ 1.67452917e-04, 1.67452917e+00], [ 1.09072725e-03, 3.63575750e-02], [ 5.61141592e-03, 5.61141592e+01], [-5.56600065e-02, -1.66980020e-03], [ 1.20124465e-03, 1.20124465e+01], [-7.11954423e-02, -2.13586327e-03], [ 3.91946237e-04, 3.91946237e+00], [-4.23849836e-01, -1.27154951e-02], [-4.38679047e+00, -4.38679047e-04], [-5.36308309e-02, -1.07261662e-02], [-8.75279106e-01, -3.38817719e-03], [-0.00000000e+00, 2.62100737e+00], [ 0.00000000e+00, 9.20737696e+00], [-0.00000000e+00, 2.75514535e+00], [-0.00000000e+00, 3.16292480e+00], [-2.41204758e-02, -0.00000000e+00]])}, adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
   </si>
   <si>
     <t xml:space="preserve">failed</t>
@@ -2204,25 +2177,7 @@
     <t xml:space="preserve">final_simplex: (array([[ 6.96936321e-01, -2.92264357e-02, 1.34037732e-02, 2.28889008e+00, 6.88316638e-03, 1.38930163e+01, 7.30215544e-01, -2.20711402e-02, 1.26701405e-01, 1.06339024e+00, -2.30434528e-02, 1.14820776e-01, -7.43834970e-03, -3.89013822e-02, -3.50326591e-02], [ 6.96923919e-01, -2.92269207e-02, 1.33999181e-02, 2.28889307e+00, 6.88418581e-03, 1.38925808e+01, 7.30209711e-01, -2.20711633e-02, 1.26713694e-01, 1.06339536e+00, -2.30434440e-02, 1.14821881e-01, -7.43853380e-03, -3.88992447e-02, -3.50322111e-02], [ 6.96945544e-01, -2.92270432e-02, 1.34002445e-02, 2.28889178e+00, 6.88348606e-03, 1.38930423e+01, 7.30213684e-01, -2.20713696e-02, 1.26685981e-01, 1.06338650e+00, -2.30434196e-02, 1.14824123e-01, -7.43843082e-03, -3.89006509e-02, -3.50315059e-02], [ 6.96937732e-01, -2.92268698e-02, 1.34007023e-02, 2.28888580e+00, 6.88260149e-03, 1.38940114e+01, 7.30212117e-01, -2.20715539e-02, 1.26663337e-01, 1.06338532e+00, -2.30433772e-02, 1.14825400e-01, -7.43812236e-03, -3.89036847e-02, -3.50310928e-02], [ 6.96940557e-01, -2.92268326e-02, 1.34010525e-02, 2.28888292e+00, 6.88352180e-03, 1.38930357e+01, 7.30216788e-01, -2.20712018e-02, 1.26692910e-01, 1.06338679e+00, -2.30434014e-02, 1.14822947e-01, -7.43858143e-03, -3.89006669e-02, -3.50319659e-02], [ 6.96941824e-01, -2.92271917e-02, 1.34001125e-02, 2.28889007e+00, 6.88383516e-03, 1.38926519e+01, 7.30212150e-01, -2.20712947e-02, 1.26701389e-01, 1.06338739e+00, -2.30434440e-02, 1.14822890e-01, -7.43840262e-03, -3.88996211e-02, -3.50317753e-02], [ 6.96946092e-01, -2.92273889e-02, 1.33985453e-02, 2.28890470e+00, 6.88323821e-03, 1.38935795e+01, 7.30207799e-01, -2.20714923e-02, 1.26664944e-01, 1.06339098e+00, -2.30434171e-02, 1.14826900e-01, -7.43842321e-03, -3.89018328e-02, -3.50309665e-02], [ 6.96940235e-01, -2.92266535e-02, 1.34024834e-02, 2.28889445e+00, 6.88402626e-03, 1.38923112e+01, 7.30214503e-01, -2.20709203e-02, 1.26717280e-01, 1.06339244e+00, -2.30434735e-02, 1.14820943e-01, -7.43862289e-03, -3.88987474e-02, -3.50328070e-02], [ 6.96942225e-01, -2.92269110e-02, 1.34011287e-02, 2.28889377e+00, 6.88320085e-03, 1.38934194e+01, 7.30210761e-01, -2.20711392e-02, 1.26679804e-01, 1.06339001e+00, -2.30434178e-02, 1.14824926e-01, -7.43837804e-03, -3.89016602e-02, -3.50317687e-02], [ 6.96947086e-01, -2.92273768e-02, 1.33986208e-02, 2.28889373e+00, 6.88338975e-03, 1.38934101e+01, 7.30217631e-01, -2.20714509e-02, 1.26666657e-01, 1.06337964e+00, -2.30433988e-02, 1.14826424e-01, -7.43857611e-03, -3.89012807e-02, -3.50310443e-02], [ 6.96942495e-01, -2.92270050e-02, 1.34000793e-02, 2.28888935e+00, 6.88322909e-03, 1.38934616e+01, 7.30208378e-01, -2.20713254e-02, 1.26674589e-01, 1.06338749e+00, -2.30434119e-02, 1.14825255e-01, -7.43841038e-03, -3.89017928e-02, -3.50314329e-02], [ 6.96939723e-01, -2.92269099e-02, 1.34004781e-02, 2.28889152e+00, 6.88321714e-03, 1.38934409e+01, 7.30208035e-01, -2.20712368e-02, 1.26677809e-01, 1.06338818e+00, -2.30434259e-02, 1.14825326e-01, -7.43832643e-03, -3.89017343e-02, -3.50315198e-02], [ 6.96943326e-01, -2.92271627e-02, 1.33990751e-02, 2.28888918e+00, 6.88355275e-03, 1.38932655e+01, 7.30206962e-01, -2.20713461e-02, 1.26679030e-01, 1.06339126e+00, -2.30433890e-02, 1.14825599e-01, -7.43838109e-03, -3.89009905e-02, -3.50311429e-02], [ 6.96938415e-01, -2.92267121e-02, 1.34020443e-02, 2.28888374e+00, 6.88310416e-03, 1.38933718e+01, 7.30202359e-01, -2.20712671e-02, 1.26688431e-01, 1.06338948e+00, -2.30434481e-02, 1.14822352e-01, -7.43843851e-03, -3.89019362e-02, -3.50323900e-02], [ 6.96940185e-01, -2.92270614e-02, 1.33999582e-02, 2.28888982e+00, 6.88348927e-03, 1.38932822e+01, 7.30207007e-01, -2.20712326e-02, 1.26680900e-01, 1.06338672e+00, -2.30433981e-02, 1.14825218e-01, -7.43829520e-03, -3.89010852e-02, -3.50314707e-02], [ 6.96939605e-01, -2.92267353e-02, 1.34022354e-02, 2.28889908e+00, 6.88391950e-03, 1.38923752e+01, 7.30215722e-01, -2.20711138e-02, 1.26714998e-01, 1.06339212e+00, -2.30434663e-02, 1.14820884e-01, -7.43849668e-03, -3.88990121e-02, -3.50325805e-02]]), array([0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759676, 0.00759677, 0.00759677, 0.00759677])) fun: 0.007596763384451841 message: 'Optimization terminated successfully.' nfev: 2330 nit: 1712 status: 0 success: True x: array([ 6.96936321e-01, -2.92264357e-02, 1.34037732e-02, 2.28889008e+00, 6.88316638e-03, 1.38930163e+01, 7.30215544e-01, -2.20711402e-02, 1.26701405e-01, 1.06339024e+00, -2.30434528e-02, 1.14820776e-01, -7.43834970e-03, -3.89013822e-02, -3.50326591e-02])</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 0.001, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
-    </r>
+    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 0.001, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])} adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
   </si>
   <si>
     <t xml:space="preserve">not tested</t>
@@ -2234,25 +2189,7 @@
     <t xml:space="preserve">final_simplex: (array([[ 6.93255734e-01, -2.87062403e-02, 1.75567571e-02, 2.29016002e+00, 7.31332927e-03, 1.38878220e+01, 7.43786184e-01, -2.77715756e-02, 4.00709748e-03, 1.06254303e+00, -2.30490647e-02, 1.14136534e-01, -7.53117120e-03, -3.41435988e-02, -3.95714938e-02], [ 6.93255605e-01, -2.87062331e-02, 1.75568052e-02, 2.29016012e+00, 7.31332915e-03, 1.38878224e+01, 7.43786285e-01, -2.77715520e-02, 4.00714774e-03, 1.06254300e+00, -2.30490652e-02, 1.14136531e-01, -7.53116901e-03, -3.41436380e-02, -3.95714520e-02], [ 6.93255651e-01, -2.87062336e-02, 1.75568045e-02, 2.29016005e+00, 7.31333248e-03, 1.38878223e+01, 7.43786213e-01, -2.77715491e-02, 4.00714939e-03, 1.06254302e+00, -2.30490647e-02, 1.14136535e-01, -7.53117066e-03, -3.41436334e-02, -3.95714395e-02], [ 6.93255709e-01, -2.87062362e-02, 1.75567798e-02, 2.29016016e+00, 7.31332718e-03, 1.38878234e+01, 7.43786271e-01, -2.77715663e-02, 4.00712020e-03, 1.06254301e+00, -2.30490647e-02, 1.14136523e-01, -7.53117186e-03, -3.41436200e-02, -3.95714754e-02], [ 6.93255685e-01, -2.87062391e-02, 1.75567533e-02, 2.29016016e+00, 7.31333508e-03, 1.38878163e+01, 7.43786297e-01, -2.77715736e-02, 4.00709092e-03, 1.06254303e+00, -2.30490648e-02, 1.14136540e-01, -7.53117089e-03, -3.41435908e-02, -3.95714826e-02], [ 6.93255612e-01, -2.87062317e-02, 1.75568251e-02, 2.29015996e+00, 7.31332814e-03, 1.38878250e+01, 7.43786135e-01, -2.77715412e-02, 4.00717962e-03, 1.06254304e+00, -2.30490656e-02, 1.14136536e-01, -7.53116872e-03, -3.41436540e-02, -3.95714366e-02], [ 6.93255471e-01, -2.87062368e-02, 1.75567803e-02, 2.29016006e+00, 7.31333156e-03, 1.38878253e+01, 7.43786308e-01, -2.77715628e-02, 4.00711600e-03, 1.06254297e+00, -2.30490650e-02, 1.14136529e-01, -7.53117349e-03, -3.41436210e-02, -3.95714661e-02], [ 6.93255702e-01, -2.87062321e-02, 1.75568237e-02, 2.29015996e+00, 7.31332826e-03, 1.38878264e+01, 7.43786200e-01, -2.77715416e-02, 4.00717557e-03, 1.06254295e+00, -2.30490649e-02, 1.14136531e-01, -7.53117156e-03, -3.41436511e-02, -3.95714279e-02], [ 6.93255548e-01, -2.87062367e-02, 1.75567720e-02, 2.29016020e+00, 7.31333177e-03, 1.38878197e+01, 7.43786260e-01, -2.77715675e-02, 4.00710793e-03, 1.06254308e+00, -2.30490652e-02, 1.14136533e-01, -7.53116943e-03, -3.41436122e-02, -3.95714806e-02], [ 6.93255572e-01, -2.87062363e-02, 1.75567777e-02, 2.29016012e+00, 7.31333013e-03, 1.38878211e+01, 7.43786189e-01, -2.77715651e-02, 4.00710810e-03, 1.06254310e+00, -2.30490654e-02, 1.14136534e-01, -7.53116914e-03, -3.41436189e-02, -3.95714800e-02], [ 6.93255581e-01, -2.87062343e-02, 1.75567963e-02, 2.29016011e+00, 7.31333224e-03, 1.38878207e+01, 7.43786271e-01, -2.77715536e-02, 4.00714273e-03, 1.06254301e+00, -2.30490655e-02, 1.14136538e-01, -7.53116997e-03, -3.41436284e-02, -3.95714516e-02], [ 6.93255634e-01, -2.87062367e-02, 1.75567789e-02, 2.29016011e+00, 7.31333009e-03, 1.38878222e+01, 7.43786270e-01, -2.77715646e-02, 4.00711527e-03, 1.06254300e+00, -2.30490649e-02, 1.14136531e-01, -7.53117091e-03, -3.41436170e-02, -3.95714718e-02], [ 6.93255682e-01, -2.87062375e-02, 1.75567720e-02, 2.29016010e+00, 7.31333356e-03, 1.38878194e+01, 7.43786331e-01, -2.77715654e-02, 4.00711215e-03, 1.06254294e+00, -2.30490647e-02, 1.14136537e-01, -7.53117173e-03, -3.41436054e-02, -3.95714648e-02], [ 6.93255653e-01, -2.87062354e-02, 1.75567890e-02, 2.29016007e+00, 7.31333169e-03, 1.38878215e+01, 7.43786264e-01, -2.77715573e-02, 4.00713537e-03, 1.06254300e+00, -2.30490650e-02, 1.14136535e-01, -7.53117143e-03, -3.41436224e-02, -3.95714555e-02], [ 6.93255651e-01, -2.87062359e-02, 1.75567828e-02, 2.29016014e+00, 7.31333066e-03, 1.38878210e+01, 7.43786295e-01, -2.77715623e-02, 4.00712242e-03, 1.06254299e+00, -2.30490649e-02, 1.14136532e-01, -7.53117053e-03, -3.41436185e-02, -3.95714662e-02], [ 6.93255640e-01, -2.87062359e-02, 1.75567853e-02, 2.29016009e+00, 7.31333187e-03, 1.38878214e+01, 7.43786262e-01, -2.77715594e-02, 4.00712850e-03, 1.06254300e+00, -2.30490650e-02, 1.14136534e-01, -7.53117130e-03, -3.41436198e-02, -3.95714599e-02]]), array([0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176, 0.00759176])) fun: 0.007591761912433404 message: 'Optimization terminated successfully.' nfev: 2745 nit: 1956 status: 0 success: True x: array([ 6.93255734e-01, -2.87062403e-02, 1.75567571e-02, 2.29016002e+00, 7.31332927e-03, 1.38878220e+01, 7.43786184e-01, -2.77715756e-02, 4.00709748e-03, 1.06254303e+00, -2.30490647e-02, 1.14136534e-01, -7.53117120e-03, -3.41435988e-02, -3.95714938e-02])</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])}   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
-    </r>
+    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])}   adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
   </si>
   <si>
     <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.5822100752328345, 0.32463993041930755, 0.39886662800256806], [10, 'PG1', 1.69166026291533, 0.24578154970663865, 1.277143326335016], [11, 'OG311', -0.693589281540762, 0.5431331805258888, 0.0020002390832146205], [12, 'OG2P1', -0.7429931295443224, 0.3069656965561575, 0.8501271401278906], [17, 'HGP1', 0.26789812896558507, 0.05904131091001402, 0.09655762642645165]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.5822100752328345, 0.32463993041930755, 0.39886662800256806], [2, 'PG1', 1.69166026291533, 0.24578154970663865, 1.277143326335016], [3, 'OG311', -0.693589281540762, 0.5431331805258888, 0.0020002390832146205], [4, 'OG2P1', -0.7429931295443224, 0.3069656965561575, 0.8501271401278906], [9, 'HGP1', 0.26789812896558507, 0.05904131091001402, 0.09655762642645165]], dtype=object)]}}</t>
@@ -2261,38 +2198,56 @@
     <t xml:space="preserve">final_simplex: (array([[ 7.20862703e-01, -2.75988742e-02, 2.86254953e-02, 2.42730609e+00, 6.70068898e-03, 3.35778908e+00, 9.02472133e-01, -3.21481624e-02, 1.11494204e-03, 1.10908201e+00, -2.26498165e-02, 1.50664412e-01, -7.91852427e-03, -2.39184765e-02, -2.05639915e-02], [ 7.20862802e-01, -2.75988755e-02, 2.86254875e-02, 2.42730599e+00, 6.70068299e-03, 3.35778636e+00, 9.02472109e-01, -3.21481610e-02, 1.11494204e-03, 1.10908201e+00, -2.26498161e-02, 1.50664449e-01, -7.91852803e-03, -2.39184767e-02, -2.05640053e-02], [ 7.20862802e-01, -2.75988755e-02, 2.86254865e-02, 2.42730593e+00, 6.70068184e-03, 3.35778735e+00, 9.02472098e-01, -3.21481601e-02, 1.11494203e-03, 1.10908201e+00, -2.26498163e-02, 1.50664442e-01, -7.91852804e-03, -2.39184766e-02, -2.05640124e-02], [ 7.20862773e-01, -2.75988753e-02, 2.86254864e-02, 2.42730596e+00, 6.70068024e-03, 3.35778984e+00, 9.02472044e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498164e-02, 1.50664428e-01, -7.91852616e-03, -2.39184761e-02, -2.05640184e-02], [ 7.20862723e-01, -2.75988747e-02, 2.86254848e-02, 2.42730595e+00, 6.70067691e-03, 3.35779521e+00, 9.02471973e-01, -3.21481584e-02, 1.11494196e-03, 1.10908204e+00, -2.26498168e-02, 1.50664390e-01, -7.91852332e-03, -2.39184746e-02, -2.05640388e-02], [ 7.20862839e-01, -2.75988753e-02, 2.86254925e-02, 2.42730608e+00, 6.70068777e-03, 3.35778344e+00, 9.02472184e-01, -3.21481604e-02, 1.11494209e-03, 1.10908201e+00, -2.26498160e-02, 1.50664460e-01, -7.91852830e-03, -2.39184804e-02, -2.05639803e-02], [ 7.20862787e-01, -2.75988753e-02, 2.86254872e-02, 2.42730599e+00, 6.70068071e-03, 3.35778925e+00, 9.02472034e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498164e-02, 1.50664431e-01, -7.91852627e-03, -2.39184767e-02, -2.05640149e-02], [ 7.20862746e-01, -2.75988750e-02, 2.86254894e-02, 2.42730592e+00, 6.70068248e-03, 3.35779022e+00, 9.02472010e-01, -3.21481599e-02, 1.11494195e-03, 1.10908206e+00, -2.26498164e-02, 1.50664422e-01, -7.91852520e-03, -2.39184762e-02, -2.05640141e-02], [ 7.20862757e-01, -2.75988752e-02, 2.86254901e-02, 2.42730601e+00, 6.70068417e-03, 3.35778843e+00, 9.02472112e-01, -3.21481604e-02, 1.11494203e-03, 1.10908203e+00, -2.26498165e-02, 1.50664428e-01, -7.91852636e-03, -2.39184764e-02, -2.05640049e-02], [ 7.20862767e-01, -2.75988753e-02, 2.86254869e-02, 2.42730596e+00, 6.70068012e-03, 3.35779059e+00, 9.02472020e-01, -3.21481595e-02, 1.11494201e-03, 1.10908204e+00, -2.26498166e-02, 1.50664420e-01, -7.91852601e-03, -2.39184755e-02, -2.05640221e-02], [ 7.20862753e-01, -2.75988756e-02, 2.86254858e-02, 2.42730595e+00, 6.70067928e-03, 3.35779031e+00, 9.02472023e-01, -3.21481598e-02, 1.11494202e-03, 1.10908205e+00, -2.26498166e-02, 1.50664425e-01, -7.91852670e-03, -2.39184739e-02, -2.05640252e-02], [ 7.20862833e-01, -2.75988756e-02, 2.86254818e-02, 2.42730592e+00, 6.70067724e-03, 3.35778823e+00, 9.02472016e-01, -3.21481603e-02, 1.11494202e-03, 1.10908202e+00, -2.26498161e-02, 1.50664451e-01, -7.91852759e-03, -2.39184769e-02, -2.05640236e-02], [ 7.20862808e-01, -2.75988748e-02, 2.86254943e-02, 2.42730604e+00, 6.70068740e-03, 3.35778608e+00, 9.02472027e-01, -3.21481604e-02, 1.11494204e-03, 1.10908204e+00, -2.26498164e-02, 1.50664441e-01, -7.91852674e-03, -2.39184785e-02, -2.05639910e-02], [ 7.20862770e-01, -2.75988754e-02, 2.86254862e-02, 2.42730597e+00, 6.70067853e-03, 3.35779191e+00, 9.02471995e-01, -3.21481597e-02, 1.11494201e-03, 1.10908204e+00, -2.26498169e-02, 1.50664412e-01, -7.91852491e-03, -2.39184764e-02, -2.05640257e-02], [ 7.20862746e-01, -2.75988746e-02, 2.86254863e-02, 2.42730597e+00, 6.70068134e-03, 3.35778900e+00, 9.02472119e-01, -3.21481612e-02, 1.11494206e-03, 1.10908203e+00, -2.26498167e-02, 1.50664431e-01, -7.91852683e-03, -2.39184748e-02, -2.05640137e-02], [ 7.20862702e-01, -2.75988746e-02, 2.86254855e-02, 2.42730594e+00, 6.70067917e-03, 3.35779057e+00, 9.02472006e-01, -3.21481604e-02, 1.11494202e-03, 1.10908208e+00, -2.26498168e-02, 1.50664427e-01, -7.91852744e-03, -2.39184700e-02, -2.05640297e-02]]), array([0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258, 0.0063258])) fun: 0.0063257974266551 message: 'Optimization terminated successfully.' nfev: 3334 nit: 2380 status: 0 success: True x: array([ 7.20862703e-01, -2.75988742e-02, 2.86254953e-02, 2.42730609e+00, 6.70068898e-03, 3.35778908e+00, 9.02472133e-01, -3.21481624e-02, 1.11494204e-03, 1.10908201e+00, -2.26498165e-02, 1.50664412e-01, -7.91852427e-03, -2.39184765e-02, -2.05639915e-02])</t>
   </si>
   <si>
-    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])}   adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
-  </si>
-  <si>
     <t xml:space="preserve">'all': {'CustomNonbondedForce': [array([[0.38308644880034587, 2.44764, 'PG2', 0], [0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.30290556416771536, 0.50208, 'OG2P1', 2]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[0, 'PG2', 1.099], [1, 'OG303', -0.399], [2, 'OG2P1', -0.9]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.1, 0.38308644880034587, 2.44764], [1, 'OG303', -0.4, 0.29399657698631193, 0.41840000000000005], [2, 'OG2P1', -0.9, 0.30290556416771536, 0.50208]], dtype=object)]}</t>
   </si>
   <si>
     <t xml:space="preserve">final_simplex: (array([[-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466], [-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466]]), array([1.20763173e-02, 1.20773827e-02, 1.20773829e-02, 1.20773830e-02, 1.39924731e+04, 1.39924731e+04, 1.39924731e+04, 1.39924731e+04, 1.39924731e+04, 1.39924735e+04, 1.39924735e+04, 1.39924735e+04])) fun: 0.012076317313923451 message: 'Maximum number of iterations has been exceeded.' nfev: 24841 nit: 10000 status: 2 success: False x: array([-0.02385837, 6.26988526, -0.05159689, -0.00865144, -0.05051981, 0.03941298, -0.04901699, -0.04851167, 0.91544765, 0.41468666, 1.47273466])</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-6.40818460e-02, -1.92245538e-03], [ 5.03211214e-03, 5.03211214e+01], [-1.75420278e-01, -5.26260835e-03], [-3.98987667e-01, -3.98987667e-05], [-1.64286435e-01, -4.92859305e-03], [ 1.69256322e-04, 1.69256322e+00], [-1.47921904e-01, -2.95843809e-02], [-2.33378441e+00, -9.03400418e-03], [ 0.00000000e+00, 4.98370786e+00], [-0.00000000e+00, 2.08296007e+00], [-0.00000000e+00, 3.33519118e+00]])}, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
-    </r>
+    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-6.40818460e-02, -1.92245538e-03], [ 5.03211214e-03, 5.03211214e+01], [-1.75420278e-01, -5.26260835e-03], [-3.98987667e-01, -3.98987667e-05], [-1.64286435e-01, -4.92859305e-03], [ 1.69256322e-04, 1.69256322e+00], [-1.47921904e-01, -2.95843809e-02], [-2.33378441e+00, -9.03400418e-03], [ 0.00000000e+00, 4.98370786e+00], [-0.00000000e+00, 2.08296007e+00], [-0.00000000e+00, 3.33519118e+00]])}, adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
   </si>
   <si>
     <t xml:space="preserve">scipy local Nelder-Mead
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198], [-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198]]), array([1.03861761e-02, 1.04127342e-02, 1.04127343e-02, 1.04127343e-02, 1.04127343e-02, 1.04127343e-02, 2.72252195e+05, 2.72252195e+05, 2.72252195e+05, 2.72252195e+05, 2.72252229e+05, 2.72252229e+05])) fun: 0.010386176148739388 message: 'Maximum number of iterations has been exceeded.' nfev: 25103 nit: 10000 status: 2 success: False x: array([-0.02522325, 6.2338515 , -0.05212151, -0.00812768, -0.05061647, 0.04128336, -0.04652821, -0.04829131, 0.92214136, 0.41921684, 1.49954198])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'CustomNonbondedForce': [array([[0.38308644880034587, 2.44764, 'PG2', 0], [0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.30290556416771536, 0.50208, 'OG2P1', 2]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[0, 'PG2', 1.099], [1, 'OG303', -0.399], [2, 'OG2P1', -0.9]], dtype=object)]}, 'mol1': {'CustomNonbondedForce': [array([[0.38308644880034587, 2.44764, 'PG2', 0], [0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.30290556416771536, 0.50208, 'OG2P1', 2]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[0, 'PG2', 1.099], [1, 'OG303', -0.399], [2, 'OG2P1', -0.9]], dtype=object)]}, 'mol2': {'CustomNonbondedForce': [array([[0.38308644880034587, 2.44764, 'PG2', 0], [0.293996576986312, 0.41840000000000005, 'OG303', 1], [0.30290556416771536, 0.50208, 'OG2P1', 2]], dtype=object), array([[0.31600000000000006, 0.31388368000000005, 'SOD', 'OG2P1', 1]], dtype=object)], 'NonbondedForce': [array([[0, 'PG2', 1.099], [1, 'OG303', -0.399], [2, 'OG2P1', -0.9]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00], [-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00]]), array([ 70919.28429201, 137022.64281598, 191154.24095485, 191154.24095487, 191154.24095488, 191154.2409839 , 214804.21578518, 214804.2157852 , 230806.55624924, 230806.5562493 , 230806.55624933, 230806.55626542])) fun: 70919.28429200605 message: 'Maximum number of iterations has been exceeded.' nfev: 29903 nit: 10000 status: 2 success: False x: array([-2.12781972e-03, 5.59585704e+00, -5.87440323e-02, -1.08723084e-02, -7.21049513e-02, 6.21399796e-02, -3.20701412e-02, -4.63477973e-02, 7.75578353e-01, 4.96090310e-01, 1.81325743e+00])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[-6.40818460e-02, -1.92245538e-03], [ 5.03211214e-03, 5.03211214e+01], [-1.75420278e-01, -5.26260835e-03], [-3.98987667e-01, -3.98987667e-05], [-1.64286435e-01, -4.92859305e-03], [ 1.69256322e-04, 1.69256322e+00], [-1.47921904e-01, -2.95843809e-02], [-2.33378441e+00, -9.03400418e-03], [ 0.00000000e+00, 4.98370786e+00], [-0.00000000e+00, 2.08296007e+00], [-0.00000000e+00, 3.33519118e+00]])}, adaptive=True, extra penalty term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frames 0,3 not dumped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207]]), array([ 66095.78999775, 86663.52505272, 86663.52505272, 86663.52505372, 86663.52519538, 127482.38265611, 127482.38265611, 127482.38276504, 127482.38329336, 168180.60982277, 188572.28475174, 188572.2858115 ])) fun: 66095.78999774625 message: 'Maximum number of iterations has been exceeded.' nfev: 27121 nit: 10000 status: 2 success: False x: array([-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[0, 'PG2', 1.099, 0.38308644880034587, 2.44764], [1, 'OG303', -0.399, 0.29399657698631193, 0.41840000000000005], [2, 'OG2P1', -0.9, 0.30290556416771536, 0.50208]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.099, 0.38308644880034587, 2.44764], [1, 'OG303', -0.399, 0.29399657698631193, 0.41840000000000005], [2, 'OG2P1', -0.9, 0.30290556416771536, 0.50208]], dtype=object)]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[0, 'PG2', 1.4791865428309443, 0.030202954529675956, 4.776929917392559], [1, 'OG303', -0.6247667956378391, 0.35949071254290094, 0.0296761940770147], [2, 'OG2P1', -0.5697680190196596, 0.03069264494376563, 0.002]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.4791865428309443, 0.030202954529675956, 4.776929917392559], [1, 'OG303', -0.6247667956378391, 0.35949071254290094, 0.0296761940770147], [2, 'OG2P1', -0.5697680190196596, 0.03069264494376563, 0.002]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 1.06962170e+00, -2.66335595e-03, 1.07549556e+01, 6.08815116e-01, -6.79946124e-02, -1.42931873e-03, 8.78706376e-01, -5.49538304e-03, 9.33309132e-05], [ 1.06962192e+00, -2.66335593e-03, 1.07549550e+01, 6.08815335e-01, -6.79946077e-02, -1.42931968e-03, 8.78706303e-01, -5.49538226e-03, 9.33309132e-05], [ 1.06962164e+00, -2.66335558e-03, 1.07549488e+01, 6.08815266e-01, -6.79945814e-02, -1.42932370e-03, 8.78706145e-01, -5.49538195e-03, 9.33309132e-05], [ 1.06962168e+00, -2.66335589e-03, 1.07549510e+01, 6.08815137e-01, -6.79945985e-02, -1.42932377e-03, 8.78706353e-01, -5.49538275e-03, 9.33309132e-05], [ 1.06962173e+00, -2.66335586e-03, 1.07549463e+01, 6.08815226e-01, -6.79945847e-02, -1.42933255e-03, 8.78706284e-01, -5.49538230e-03, 9.33309132e-05], [ 1.06962190e+00, -2.66335608e-03, 1.07549635e+01, 6.08815379e-01, -6.79946347e-02, -1.42930900e-03, 8.78706482e-01, -5.49538311e-03, 9.33309132e-05], [ 1.06962180e+00, -2.66335598e-03, 1.07549545e+01, 6.08815049e-01, -6.79946080e-02, -1.42931764e-03, 8.78706301e-01, -5.49538213e-03, 9.33309132e-05], [ 1.06962175e+00, -2.66335606e-03, 1.07549597e+01, 6.08815213e-01, -6.79946227e-02, -1.42930908e-03, 8.78706380e-01, -5.49538250e-03, 9.33309132e-05], [ 1.06962166e+00, -2.66335593e-03, 1.07549635e+01, 6.08815214e-01, -6.79946278e-02, -1.42930518e-03, 8.78706352e-01, -5.49538303e-03, 9.33309132e-05], [ 1.06962173e+00, -2.66335576e-03, 1.07549487e+01, 6.08815168e-01, -6.79945870e-02, -1.42932556e-03, 8.78706281e-01, -5.49538216e-03, 9.33309132e-05]]), array([0.01885611, 0.01885653, 0.01885653, 0.01885653, 0.01885653, 0.01885653, 0.01885662, 0.01885662, 0.01885662, 0.01885662])) fun: 0.018856108794815692 message: 'Optimization terminated successfully.' nfev: 772 nit: 461 status: 0 success: True x: array([ 1.06962170e+00, -2.66335595e-03, 1.07549556e+01, 6.08815116e-01, -6.79946124e-02, -1.42931873e-03, 8.78706376e-01, -5.49538304e-03, 9.33309132e-05])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 1e-05, 'bounds': array([[ 0.00000000e+00, 4.33868968e+00], [-8.81819718e-02, -2.64545915e-03], [ 4.50287681e-03, 4.50287681e+01], [-0.00000000e+00, 1.94893641e+00], [-1.89141562e-01, -5.67424685e-03], [-9.63269749e-01, -9.63269749e-05], [-0.00000000e+00, 3.08443596e+00], [-1.79045603e-01, -5.37136808e-03], [ 9.33309132e-05, 9.33309132e-01]])}, adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not tested yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[0, 'PG2', 1.3981788846729686, 0.03000000143286889, 6.260920202153965], [1, 'OG303', 0.0, 0.27813839576442684, 0.6584430020597645], [2, 'OG2P1', -0.634788913410061, 0.032581151008694846, 0.002]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.3981788846729686, 0.03000000143286889, 6.260920202153965], [1, 'OG303', 0.0, 0.27813839576442684, 0.6584430020597645], [2, 'OG2P1', -0.634788913410061, 0.032581151008694846, 0.002]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 1.01104416e+00, -2.64545915e-03, 1.40960778e+01, -0.00000000e+00, -5.26075300e-02, -3.17129176e-02, 9.78982712e-01, -5.83351203e-03, 9.33309132e-05], [ 1.01104418e+00, -2.64545930e-03, 1.40960850e+01, -0.00000000e+00, -5.26075465e-02, -3.17129351e-02, 9.78982580e-01, -5.83351242e-03, 9.33309132e-05], [ 1.01104425e+00, -2.64545927e-03, 1.40960829e+01, -0.00000000e+00, -5.26075597e-02, -3.17129213e-02, 9.78982621e-01, -5.83351213e-03, 9.33309132e-05], [ 1.01104425e+00, -2.64545918e-03, 1.40960812e+01, -0.00000000e+00, -5.26075498e-02, -3.17129197e-02, 9.78982662e-01, -5.83351196e-03, 9.33309132e-05], [ 1.01104430e+00, -2.64545921e-03, 1.40960858e+01, -0.00000000e+00, -5.26075217e-02, -3.17129339e-02, 9.78982593e-01, -5.83351240e-03, 9.33309132e-05], [ 1.01104441e+00, -2.64545936e-03, 1.40960835e+01, -0.00000000e+00, -5.26075421e-02, -3.17129223e-02, 9.78982658e-01, -5.83351198e-03, 9.33309132e-05], [ 1.01104416e+00, -2.64545933e-03, 1.40960855e+01, -0.00000000e+00, -5.26075250e-02, -3.17129166e-02, 9.78982679e-01, -5.83351217e-03, 9.33309132e-05], [ 1.01104403e+00, -2.64545933e-03, 1.40960785e+01, -0.00000000e+00, -5.26075367e-02, -3.17129138e-02, 9.78982936e-01, -5.83351188e-03, 9.33309132e-05], [ 1.01104405e+00, -2.64545928e-03, 1.40960762e+01, -0.00000000e+00, -5.26075305e-02, -3.17129113e-02, 9.78982875e-01, -5.83351181e-03, 9.33309132e-05], [ 1.01104429e+00, -2.64545930e-03, 1.40960814e+01, -0.00000000e+00, -5.26075727e-02, -3.17129305e-02, 9.78982607e-01, -5.83351219e-03, 9.33309132e-05]]), array([0.0178902 , 0.01789056, 0.01789057, 0.01789057, 0.01789057, 0.01789061, 0.01789072, 0.01789072, 0.01789072, 0.0178908 ])) fun: 0.017890199876231777 message: 'Optimization terminated successfully.' nfev: 595 nit: 346 status: 0 success: True x: array([ 1.01104416e+00, -2.64545915e-03, 1.40960778e+01, -0.00000000e+00, -5.26075300e-02, -3.17129176e-02, 9.78982712e-01, -5.83351203e-03, 9.33309132e-05])</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2259,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2328,12 +2283,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2344,8 +2293,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2449,16 +2398,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2544,7 +2493,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.7"/>
@@ -3203,15 +3152,15 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.87"/>
@@ -3254,49 +3203,58 @@
     </row>
     <row r="2" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1E-005</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>24841</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>144</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>212</v>
+      <c r="A3" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1E-005</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>25103</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>140</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,14 +3423,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="605.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>29903</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>27121</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3488,14 +3555,125 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.47"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>772</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>595</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3919,7 +4097,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.76"/>
@@ -4325,10 +4503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4361,7 +4539,15 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="900.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -4377,15 +4563,18 @@
         <v>24817</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H2" s="3"/>
+      <c r="J2" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -4413,7 +4602,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4430,19 +4619,19 @@
         <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="1250" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,14 +4645,14 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -4479,19 +4668,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>159</v>
@@ -4522,7 +4711,7 @@
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.16"/>
@@ -4571,7 +4760,7 @@
     </row>
     <row r="2" customFormat="false" ht="579.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1E-005</v>
@@ -4583,30 +4772,30 @@
         <v>3025</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1E-005</v>
@@ -4619,10 +4808,10 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>124</v>
@@ -4631,10 +4820,10 @@
         <v>144</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,7 +5093,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.77"/>
@@ -4948,68 +5137,68 @@
     </row>
     <row r="2" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1E-005</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>144</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1E-005</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>28463</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>140</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>0.001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>143983</v>
@@ -5017,14 +5206,14 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>144</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5045,8 +5234,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5095,7 +5284,7 @@
     </row>
     <row r="2" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0.001</v>
@@ -5107,30 +5296,30 @@
         <v>2330</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>144</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1E-005</v>
@@ -5142,24 +5331,27 @@
         <v>2745</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>144</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>1E-005</v>
@@ -5171,12 +5363,12 @@
         <v>3334</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -5184,6 +5376,9 @@
       </c>
       <c r="J4" s="5" t="s">
         <v>208</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/optimizer_testing_results2.xlsx
+++ b/optimizer_testing_results2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="testing_optimizers" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="233">
   <si>
     <t xml:space="preserve">mp0mp0</t>
   </si>
@@ -2180,9 +2180,6 @@
     <t xml:space="preserve">{'method': 'Nelder-Mead', 'options': {'maxiter': 10000}, 'tol': 0.001, 'bounds': array([[-0.00000000e+00, 2.47629788e+00], [-8.50138037e-02, -2.55041411e-03], [ 1.43534130e-04, 1.43534130e+00], [ 0.00000000e+00, 8.60919668e+00], [ 8.17882472e-04, 2.72627491e-02], [ 5.25828101e-03, 5.25828101e+01], [-0.00000000e+00, 2.60232405e+00], [-5.91901966e-02, -1.77570590e-03], [ 1.11480874e-03, 1.11480874e+01], [-0.00000000e+00, 2.98544360e+00], [-7.37861484e-02, -2.21358445e-03], [ 3.54451527e-04, 3.54451527e+00], [-2.95579753e-02, -0.00000000e+00], [-4.05114256e-01, -1.21534277e-02], [-4.25942842e+00, -4.25942842e-04]])} adaptive: True, Opti.enforce_constraints = True (extra penalty term)</t>
   </si>
   <si>
-    <t xml:space="preserve">not tested</t>
-  </si>
-  <si>
     <t xml:space="preserve">{'all': {'NonbondedForce': [array([[9, 'OG303', -0.5599129954869155, 0.33766560536389834, 0.24463550238426554], [10, 'PG1', 1.5960792979624205, 0.26825370933543097, 5.282265979653451], [11, 'OG311', -0.5716323692701902, 0.4691919782083792, 0.007188878217136525], [12, 'OG2P1', -0.7118157844219934, 0.3123765806333538, 0.6440177463798187], [17, 'HGP1', 0.25479322119944364, 0.08428142176355477, 0.1858064551933233]], dtype=object)]}, 'mol2': {'NonbondedForce': [array([[1, 'OG303', -0.5599129954869155, 0.33766560536389834, 0.24463550238426554], [2, 'PG1', 1.5960792979624205, 0.26825370933543097, 5.282265979653451], [3, 'OG311', -0.5716323692701902, 0.4691919782083792, 0.007188878217136525], [4, 'OG2P1', -0.7118157844219934, 0.3123765806333538, 0.6440177463798187], [9, 'HGP1', 0.25479322119944364, 0.08428142176355477, 0.1858064551933233]], dtype=object)]}}</t>
   </si>
   <si>
@@ -2229,6 +2226,9 @@
     <t xml:space="preserve">final_simplex: (array([[-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207], [-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207]]), array([ 66095.78999775, 86663.52505272, 86663.52505272, 86663.52505372, 86663.52519538, 127482.38265611, 127482.38265611, 127482.38276504, 127482.38329336, 168180.60982277, 188572.28475174, 188572.2858115 ])) fun: 66095.78999774625 message: 'Maximum number of iterations has been exceeded.' nfev: 27121 nit: 10000 status: 2 success: False x: array([-0.02352363, 6.23636168, -0.05153438, -0.00844866, -0.04944339, 0.04397749, -0.0481493 , -0.04872237, 0.91987916, 0.42038603, 1.51459207])</t>
   </si>
   <si>
+    <t xml:space="preserve">Frames 0,3 dumped</t>
+  </si>
+  <si>
     <t xml:space="preserve">{'all': {'NonbondedForce': [array([[0, 'PG2', 1.099, 0.38308644880034587, 2.44764], [1, 'OG303', -0.399, 0.29399657698631193, 0.41840000000000005], [2, 'OG2P1', -0.9, 0.30290556416771536, 0.50208]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.099, 0.38308644880034587, 2.44764], [1, 'OG303', -0.399, 0.29399657698631193, 0.41840000000000005], [2, 'OG2P1', -0.9, 0.30290556416771536, 0.50208]], dtype=object)]}</t>
   </si>
   <si>
@@ -2244,10 +2244,25 @@
     <t xml:space="preserve">not tested yet</t>
   </si>
   <si>
+    <t xml:space="preserve">Frames 6,7,9,11,12,15,16,17,18,21,22,25,26,27,31,37,41,43,45,47,48,49 have not been dumped</t>
+  </si>
+  <si>
     <t xml:space="preserve">{'all': {'NonbondedForce': [array([[0, 'PG2', 1.3981788846729686, 0.03000000143286889, 6.260920202153965], [1, 'OG303', 0.0, 0.27813839576442684, 0.6584430020597645], [2, 'OG2P1', -0.634788913410061, 0.032581151008694846, 0.002]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.3981788846729686, 0.03000000143286889, 6.260920202153965], [1, 'OG303', 0.0, 0.27813839576442684, 0.6584430020597645], [2, 'OG2P1', -0.634788913410061, 0.032581151008694846, 0.002]], dtype=object)]}}</t>
   </si>
   <si>
     <t xml:space="preserve">final_simplex: (array([[ 1.01104416e+00, -2.64545915e-03, 1.40960778e+01, -0.00000000e+00, -5.26075300e-02, -3.17129176e-02, 9.78982712e-01, -5.83351203e-03, 9.33309132e-05], [ 1.01104418e+00, -2.64545930e-03, 1.40960850e+01, -0.00000000e+00, -5.26075465e-02, -3.17129351e-02, 9.78982580e-01, -5.83351242e-03, 9.33309132e-05], [ 1.01104425e+00, -2.64545927e-03, 1.40960829e+01, -0.00000000e+00, -5.26075597e-02, -3.17129213e-02, 9.78982621e-01, -5.83351213e-03, 9.33309132e-05], [ 1.01104425e+00, -2.64545918e-03, 1.40960812e+01, -0.00000000e+00, -5.26075498e-02, -3.17129197e-02, 9.78982662e-01, -5.83351196e-03, 9.33309132e-05], [ 1.01104430e+00, -2.64545921e-03, 1.40960858e+01, -0.00000000e+00, -5.26075217e-02, -3.17129339e-02, 9.78982593e-01, -5.83351240e-03, 9.33309132e-05], [ 1.01104441e+00, -2.64545936e-03, 1.40960835e+01, -0.00000000e+00, -5.26075421e-02, -3.17129223e-02, 9.78982658e-01, -5.83351198e-03, 9.33309132e-05], [ 1.01104416e+00, -2.64545933e-03, 1.40960855e+01, -0.00000000e+00, -5.26075250e-02, -3.17129166e-02, 9.78982679e-01, -5.83351217e-03, 9.33309132e-05], [ 1.01104403e+00, -2.64545933e-03, 1.40960785e+01, -0.00000000e+00, -5.26075367e-02, -3.17129138e-02, 9.78982936e-01, -5.83351188e-03, 9.33309132e-05], [ 1.01104405e+00, -2.64545928e-03, 1.40960762e+01, -0.00000000e+00, -5.26075305e-02, -3.17129113e-02, 9.78982875e-01, -5.83351181e-03, 9.33309132e-05], [ 1.01104429e+00, -2.64545930e-03, 1.40960814e+01, -0.00000000e+00, -5.26075727e-02, -3.17129305e-02, 9.78982607e-01, -5.83351219e-03, 9.33309132e-05]]), array([0.0178902 , 0.01789056, 0.01789057, 0.01789057, 0.01789057, 0.01789061, 0.01789072, 0.01789072, 0.01789072, 0.0178908 ])) fun: 0.017890199876231777 message: 'Optimization terminated successfully.' nfev: 595 nit: 346 status: 0 success: True x: array([ 1.01104416e+00, -2.64545915e-03, 1.40960778e+01, -0.00000000e+00, -5.26075300e-02, -3.17129176e-02, 9.78982712e-01, -5.83351203e-03, 9.33309132e-05])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[0, 'PG2', 1.7792374826861006, 0.05572762521558774, 7.990200869489628], [1, 'OG303', -0.6529021651337062, 0.5695578177058144, 0.0020092004186105525], [2, 'OG2P1', -0.6617875213493657, 0.28480162676676263, 1.3867718260958903]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.7792374826861006, 0.05572762521558774, 7.990200869489628], [1, 'OG303', -0.6529021651337062, 0.5695578177058144, 0.0020092004186105525], [2, 'OG2P1', -0.6617875213493657, 0.28480162676676263, 1.3867718260958903]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frames 6,7,9,11,12,15,16,17,18,21,22,25,26,27,31,37,41,43,45,47,48,49 dumped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'all': {'NonbondedForce': [array([[0, 'PG2', 1.7198450239424448, 0.26713463262123643, 11.471562073060582], [1, 'OG303', -0.6162034053208543, 0.40194043092964515, 1.098949532307649], [2, 'OG2P1', -0.6460165295805733, 0.2784550188447739, 1.9988804652651129]], dtype=object)]}, 'mol1': {'NonbondedForce': [array([[0, 'PG2', 1.7198450239424448, 0.26713463262123643, 11.471562073060582], [1, 'OG303', -0.6162034053208543, 0.40194043092964515, 1.098949532307649], [2, 'OG2P1', -0.6460165295805733, 0.2784550188447739, 1.9988804652651129]], dtype=object)]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_simplex: (array([[ 1.24364566e+00, -2.35564595e-02, 2.58275174e+01, 6.00470700e-01, -7.60236478e-02, -5.29292465e-02, 9.96298282e-01, -4.98561453e-02, 9.32786779e-02], [ 1.24364565e+00, -2.35564544e-02, 2.58275127e+01, 6.00470729e-01, -7.60236364e-02, -5.29292395e-02, 9.96298329e-01, -4.98561462e-02, 9.32786641e-02], [ 1.24364567e+00, -2.35564611e-02, 2.58275172e+01, 6.00470663e-01, -7.60236403e-02, -5.29292449e-02, 9.96298245e-01, -4.98561463e-02, 9.32786765e-02], [ 1.24364562e+00, -2.35564580e-02, 2.58275134e+01, 6.00470528e-01, -7.60236396e-02, -5.29292374e-02, 9.96298280e-01, -4.98561473e-02, 9.32786605e-02], [ 1.24364563e+00, -2.35564577e-02, 2.58275151e+01, 6.00470701e-01, -7.60236360e-02, -5.29292426e-02, 9.96298270e-01, -4.98561455e-02, 9.32786709e-02], [ 1.24364562e+00, -2.35564549e-02, 2.58275120e+01, 6.00470680e-01, -7.60236374e-02, -5.29292382e-02, 9.96298255e-01, -4.98561465e-02, 9.32786613e-02], [ 1.24364562e+00, -2.35564531e-02, 2.58275112e+01, 6.00470709e-01, -7.60236357e-02, -5.29292371e-02, 9.96298276e-01, -4.98561459e-02, 9.32786590e-02], [ 1.24364564e+00, -2.35564642e-02, 2.58275201e+01, 6.00470688e-01, -7.60236398e-02, -5.29292504e-02, 9.96298235e-01, -4.98561458e-02, 9.32786874e-02], [ 1.24364565e+00, -2.35564586e-02, 2.58275168e+01, 6.00470779e-01, -7.60236316e-02, -5.29292459e-02, 9.96298301e-01, -4.98561455e-02, 9.32786782e-02], [ 1.24364564e+00, -2.35564586e-02, 2.58275154e+01, 6.00470627e-01, -7.60236407e-02, -5.29292420e-02, 9.96298306e-01, -4.98561466e-02, 9.32786696e-02]]), array([0.0112973, 0.0112973, 0.0112973, 0.0112973, 0.0112973, 0.0112973, 0.0112973, 0.0112973, 0.0112973, 0.0112973])) fun: 0.011297296536080633 message: 'Optimization terminated successfully.' nfev: 1421 nit: 906 status: 0 success: True x: array([ 1.24364566e+00, -2.35564595e-02, 2.58275174e+01, 6.00470700e-01, -7.60236478e-02, -5.29292465e-02, 9.96298282e-01, -4.98561453e-02, 9.32786779e-02])</t>
   </si>
 </sst>
 </file>
@@ -2353,7 +2368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2408,6 +2423,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2493,7 +2512,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.7"/>
@@ -3156,7 +3175,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.35"/>
@@ -3215,10 +3234,10 @@
         <v>24841</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>124</v>
@@ -3227,12 +3246,12 @@
         <v>144</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1E-005</v>
@@ -3245,7 +3264,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>124</v>
@@ -3254,7 +3273,7 @@
         <v>140</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,13 +3442,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.28"/>
@@ -3492,10 +3511,10 @@
         <v>29903</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>124</v>
@@ -3504,10 +3523,10 @@
         <v>144</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,7 +3543,7 @@
         <v>27121</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>124</v>
@@ -3533,10 +3552,56 @@
         <v>140</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>219</v>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>27372</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>27230</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3555,13 +3620,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.98"/>
@@ -3569,6 +3634,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,6 +3672,9 @@
       <c r="K1" s="0" t="s">
         <v>136</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -3640,6 +3710,9 @@
       <c r="K2" s="3" t="s">
         <v>225</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -3655,10 +3728,10 @@
         <v>595</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>124</v>
@@ -3671,6 +3744,72 @@
       </c>
       <c r="K3" s="3" t="s">
         <v>225</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>1649</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1421</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4093,8 +4232,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4458,7 +4597,7 @@
       <c r="G11" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -4707,11 +4846,11 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.16"/>
@@ -5235,7 +5374,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5314,7 +5453,7 @@
         <v>204</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,10 +5470,10 @@
         <v>2745</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>124</v>
@@ -5343,7 +5482,7 @@
         <v>144</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>194</v>
@@ -5363,10 +5502,10 @@
         <v>3334</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>124</v>
@@ -5375,7 +5514,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>194</v>
